--- a/Health_care_result.xlsx
+++ b/Health_care_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006823240605110747</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C2">
-        <v>0.5224719101123596</v>
+        <v>-0.008159118666370091</v>
       </c>
       <c r="D2">
-        <v>0.005859479039247723</v>
+        <v>-0.00542543075846928</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.008159118666370091</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C3">
-        <v>1.044943820224719</v>
+        <v>0.002641404817012472</v>
       </c>
       <c r="D3">
-        <v>0.004570806822100962</v>
+        <v>0.001756410162148554</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.002641404817012472</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C4">
-        <v>1.567415730337079</v>
+        <v>0.01173955750971878</v>
       </c>
       <c r="D4">
-        <v>0.007831756471597454</v>
+        <v>0.00780625445081108</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01173955750971878</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C5">
-        <v>2.089887640449438</v>
+        <v>0.001664543269819241</v>
       </c>
       <c r="D5">
-        <v>0.006019630794517624</v>
+        <v>0.001106843106977151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001664543269819241</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C6">
-        <v>2.612359550561798</v>
+        <v>-0.002389532356122714</v>
       </c>
       <c r="D6">
-        <v>0.008912916263160587</v>
+        <v>-0.001588926803663392</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.002389532356122714</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C7">
-        <v>3.134831460674158</v>
+        <v>-0.001215771245501429</v>
       </c>
       <c r="D7">
-        <v>0.01354667167233889</v>
+        <v>-0.0008084307852750584</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001215771245501429</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C8">
-        <v>3.657303370786517</v>
+        <v>-0.002426532525459102</v>
       </c>
       <c r="D8">
-        <v>0.01709226804456678</v>
+        <v>-0.001613530178733008</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.002426532525459102</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C9">
-        <v>4.179775280898877</v>
+        <v>0.007008582138093189</v>
       </c>
       <c r="D9">
-        <v>0.005075910097057108</v>
+        <v>0.004660377996706588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007008582138093189</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C10">
-        <v>4.702247191011237</v>
+        <v>-0.0001689839375407232</v>
       </c>
       <c r="D10">
-        <v>0.005800152920567046</v>
+        <v>-0.0001123663829280437</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0001689839375407232</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C11">
-        <v>5.224719101123597</v>
+        <v>-0.003913383858299646</v>
       </c>
       <c r="D11">
-        <v>0.004529191467486666</v>
+        <v>-0.002602216492086135</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.003913383858299646</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C12">
-        <v>5.747191011235957</v>
+        <v>0.001328127770827692</v>
       </c>
       <c r="D12">
-        <v>0.004112881963762276</v>
+        <v>0.0008831425983207969</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.001328127770827692</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C13">
-        <v>6.269662921348317</v>
+        <v>-0.01217910349318707</v>
       </c>
       <c r="D13">
-        <v>-0.006642374229597909</v>
+        <v>-0.008098531888605895</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.01217910349318707</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C14">
-        <v>6.792134831460677</v>
+        <v>-0.009747300459506114</v>
       </c>
       <c r="D14">
-        <v>-0.004152813772165736</v>
+        <v>-0.006481497069410006</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.009747300459506114</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C15">
-        <v>7.314606741573037</v>
+        <v>0.003438674025199262</v>
       </c>
       <c r="D15">
-        <v>-0.002508747573516593</v>
+        <v>0.002286556745590935</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.003438674025199262</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C16">
-        <v>7.837078651685397</v>
+        <v>-0.02045928792149176</v>
       </c>
       <c r="D16">
-        <v>0.002068855345873401</v>
+        <v>-0.01360446569347709</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.02045928792149176</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C17">
-        <v>8.359550561797757</v>
+        <v>-0.02929644884198801</v>
       </c>
       <c r="D17">
-        <v>0.001047261833400509</v>
+        <v>-0.01948076270987205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.02929644884198801</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C18">
-        <v>8.882022471910117</v>
+        <v>0.001379720347176594</v>
       </c>
       <c r="D18">
-        <v>0.0008200089165101747</v>
+        <v>0.0009174492387899125</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.001379720347176594</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C19">
-        <v>9.404494382022477</v>
+        <v>0.0006539465908392827</v>
       </c>
       <c r="D19">
-        <v>0.005823884059242217</v>
+        <v>0.0004348437733795105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0006539465908392827</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C20">
-        <v>9.926966292134837</v>
+        <v>0.01582519905086155</v>
       </c>
       <c r="D20">
-        <v>0.009691583359386642</v>
+        <v>0.01052301421271529</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01582519905086155</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C21">
-        <v>10.4494382022472</v>
+        <v>-0.001367067753967888</v>
       </c>
       <c r="D21">
-        <v>0.007435443122328968</v>
+        <v>-0.0009090358584757059</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.001367067753967888</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C22">
-        <v>10.97191011235956</v>
+        <v>0.01125711753559511</v>
       </c>
       <c r="D22">
-        <v>0.008186445916526746</v>
+        <v>0.00748545452354514</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01125711753559511</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C23">
-        <v>11.49438202247192</v>
+        <v>0.009589335069714267</v>
       </c>
       <c r="D23">
-        <v>-0.0004853409469028434</v>
+        <v>0.006376457503300647</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009589335069714267</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C24">
-        <v>12.01685393258428</v>
+        <v>-0.002108977539211132</v>
       </c>
       <c r="D24">
-        <v>-0.006345753739620616</v>
+        <v>-0.001402371025355782</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.002108977539211132</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C25">
-        <v>12.53932584269664</v>
+        <v>0.005336709735632716</v>
       </c>
       <c r="D25">
-        <v>-0.003158618652157065</v>
+        <v>0.003548661360701292</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.005336709735632716</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C26">
-        <v>13.061797752809</v>
+        <v>-0.002965635714294201</v>
       </c>
       <c r="D26">
-        <v>-0.007951644871816488</v>
+        <v>-0.001972008482860439</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.002965635714294201</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C27">
-        <v>13.58426966292136</v>
+        <v>0.004735008628807158</v>
       </c>
       <c r="D27">
-        <v>-0.006091622159184647</v>
+        <v>0.003148558380727264</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.004735008628807158</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C28">
-        <v>14.10674157303372</v>
+        <v>0.007583376090618543</v>
       </c>
       <c r="D28">
-        <v>0.004118831239860068</v>
+        <v>0.005042588982639041</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007583376090618543</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C29">
-        <v>14.62921348314608</v>
+        <v>0.005802548555514875</v>
       </c>
       <c r="D29">
-        <v>0.008227812943807467</v>
+        <v>0.003858422299991822</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.005802548555514875</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C30">
-        <v>15.15168539325844</v>
+        <v>-0.0196653801309763</v>
       </c>
       <c r="D30">
-        <v>0.01015712962046924</v>
+        <v>-0.01307655429493295</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.0196653801309763</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C31">
-        <v>15.6741573033708</v>
+        <v>0.001185260167321012</v>
       </c>
       <c r="D31">
-        <v>0.01790130519415862</v>
+        <v>0.0007881423510944899</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.001185260167321012</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C32">
-        <v>16.19662921348316</v>
+        <v>-0.002079992974229228</v>
       </c>
       <c r="D32">
-        <v>0.0197945675466525</v>
+        <v>-0.001383097650766706</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.002079992974229228</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C33">
-        <v>16.71910112359551</v>
+        <v>-0.0006813116485577808</v>
       </c>
       <c r="D33">
-        <v>0.01827926465375996</v>
+        <v>-0.0004530402516909699</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.0006813116485577808</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C34">
-        <v>17.24157303370787</v>
+        <v>-0.01760152305485363</v>
       </c>
       <c r="D34">
-        <v>0.02140444613075536</v>
+        <v>-0.01170418625866048</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.01760152305485363</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C35">
-        <v>17.76404494382023</v>
+        <v>0.00407429214145516</v>
       </c>
       <c r="D35">
-        <v>0.02070426481426452</v>
+        <v>0.002709212944083174</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.00407429214145516</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C36">
-        <v>18.28651685393259</v>
+        <v>0.002690597841555231</v>
       </c>
       <c r="D36">
-        <v>0.01892416310316714</v>
+        <v>0.001789121213350259</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.002690597841555231</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C37">
-        <v>18.80898876404495</v>
+        <v>0.007491479688912506</v>
       </c>
       <c r="D37">
-        <v>0.02176868597234313</v>
+        <v>0.004981482190987193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.007491479688912506</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C38">
-        <v>19.33146067415731</v>
+        <v>-0.001671889673216853</v>
       </c>
       <c r="D38">
-        <v>0.026782320741089</v>
+        <v>-0.00111172812024725</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.001671889673216853</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C39">
-        <v>19.85393258426966</v>
+        <v>-0.0003719109414053179</v>
       </c>
       <c r="D39">
-        <v>0.03260180495785489</v>
+        <v>-0.0002473033109848574</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.0003719109414053179</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C40">
-        <v>20.37640449438202</v>
+        <v>0.008189095834163496</v>
       </c>
       <c r="D40">
-        <v>0.03505557286819844</v>
+        <v>0.005445364167315077</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.008189095834163496</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C41">
-        <v>20.89887640449438</v>
+        <v>0.006329686357704922</v>
       </c>
       <c r="D41">
-        <v>0.03771917259177655</v>
+        <v>0.004208944183898449</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.006329686357704922</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C42">
-        <v>21.42134831460674</v>
+        <v>-0.003692288094640617</v>
       </c>
       <c r="D42">
-        <v>0.03467087525401034</v>
+        <v>-0.002455198191976448</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.003692288094640617</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C43">
-        <v>21.9438202247191</v>
+        <v>0.001229054218577552</v>
       </c>
       <c r="D43">
-        <v>0.03194627879354599</v>
+        <v>0.000817263338598269</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.001229054218577552</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C44">
-        <v>22.46629213483146</v>
+        <v>-0.01419181967024308</v>
       </c>
       <c r="D44">
-        <v>0.02364843510932938</v>
+        <v>-0.009436893628591042</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.01419181967024308</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C45">
-        <v>22.98876404494381</v>
+        <v>-0.009590863204696376</v>
       </c>
       <c r="D45">
-        <v>0.02776396377419298</v>
+        <v>-0.006377473641302072</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.009590863204696376</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C46">
-        <v>23.51123595505617</v>
+        <v>0.005215908455584284</v>
       </c>
       <c r="D46">
-        <v>0.03019761318487704</v>
+        <v>0.003468334182333532</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005215908455584284</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C47">
-        <v>24.03370786516853</v>
+        <v>-0.007844030861853035</v>
       </c>
       <c r="D47">
-        <v>0.03396625685491717</v>
+        <v>-0.005215912165083516</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.007844030861853035</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C48">
-        <v>24.55617977528089</v>
+        <v>0.003044021645821182</v>
       </c>
       <c r="D48">
-        <v>0.0367863407720458</v>
+        <v>0.002024131446298958</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.003044021645821182</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C49">
-        <v>25.07865168539325</v>
+        <v>0.01670992560965168</v>
       </c>
       <c r="D49">
-        <v>0.04276584597153474</v>
+        <v>0.0111113158272854</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.01670992560965168</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C50">
-        <v>25.60112359550561</v>
+        <v>0.006724557267046016</v>
       </c>
       <c r="D50">
-        <v>0.03793295297060638</v>
+        <v>0.004471514795353597</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.006724557267046016</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C51">
-        <v>26.12359550561796</v>
+        <v>0.003157424737621817</v>
       </c>
       <c r="D51">
-        <v>0.03298466746134747</v>
+        <v>0.002099539176903078</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.003157424737621817</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C52">
-        <v>26.64606741573032</v>
+        <v>0.01267373667819083</v>
       </c>
       <c r="D52">
-        <v>0.0337148633978546</v>
+        <v>0.00842743972851024</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01267373667819083</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C53">
-        <v>27.16853932584268</v>
+        <v>0.003098420004804758</v>
       </c>
       <c r="D53">
-        <v>0.03610841693497573</v>
+        <v>0.002060303800459736</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.003098420004804758</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C54">
-        <v>27.69101123595504</v>
+        <v>-0.002479870151377739</v>
       </c>
       <c r="D54">
-        <v>0.0362367261162643</v>
+        <v>-0.001648997195217944</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.002479870151377739</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C55">
-        <v>28.2134831460674</v>
+        <v>0.005114518225227904</v>
       </c>
       <c r="D55">
-        <v>0.02840721900958719</v>
+        <v>0.003400914440462256</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005114518225227904</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C56">
-        <v>28.73595505617975</v>
+        <v>-0.001145882288922095</v>
       </c>
       <c r="D56">
-        <v>0.02977823150722158</v>
+        <v>-0.000761957911156225</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.001145882288922095</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C57">
-        <v>29.25842696629211</v>
+        <v>-0.002913226867362617</v>
       </c>
       <c r="D57">
-        <v>0.02669757059854735</v>
+        <v>-0.001937159060786152</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.002913226867362617</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C58">
-        <v>29.78089887640447</v>
+        <v>0.00465520615796855</v>
       </c>
       <c r="D58">
-        <v>0.02681215873279656</v>
+        <v>0.003095493485167624</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.00465520615796855</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C59">
-        <v>30.30337078651683</v>
+        <v>0.008205067957858247</v>
       </c>
       <c r="D59">
-        <v>0.03013159926162564</v>
+        <v>0.005455984879516354</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.008205067957858247</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C60">
-        <v>30.82584269662919</v>
+        <v>0.009523881511255716</v>
       </c>
       <c r="D60">
-        <v>0.02360129931558861</v>
+        <v>0.006332933960644505</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.009523881511255716</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C61">
-        <v>31.34831460674155</v>
+        <v>0.004015715820124832</v>
       </c>
       <c r="D61">
-        <v>0.022590941342382</v>
+        <v>0.002670262441160175</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004015715820124832</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C62">
-        <v>31.8707865168539</v>
+        <v>0.004359116240522987</v>
       </c>
       <c r="D62">
-        <v>0.02635152536652527</v>
+        <v>0.002898607594537912</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004359116240522987</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C63">
-        <v>32.39325842696626</v>
+        <v>-0.004988693426184021</v>
       </c>
       <c r="D63">
-        <v>0.02655212890028016</v>
+        <v>-0.003317246857868484</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.004988693426184021</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C64">
-        <v>33.10373461744246</v>
+        <v>-0.004120540757264202</v>
       </c>
       <c r="D64">
-        <v>0.02316745519704843</v>
+        <v>-0.002898618026017314</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.004120540757264202</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C65">
-        <v>33.81421080791865</v>
+        <v>-0.01254923567374622</v>
       </c>
       <c r="D65">
-        <v>0.02570915113596225</v>
+        <v>-0.008827831801574385</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.01254923567374622</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C66">
-        <v>34.52468699839484</v>
+        <v>0.006224115698355348</v>
       </c>
       <c r="D66">
-        <v>0.0281945984441711</v>
+        <v>0.004378389881829137</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.006224115698355348</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C67">
-        <v>35.23516318887103</v>
+        <v>0.003680527274819489</v>
       </c>
       <c r="D67">
-        <v>0.0255714116114029</v>
+        <v>0.002589088018419062</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003680527274819489</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C68">
-        <v>35.94563937934723</v>
+        <v>0.005699504520151777</v>
       </c>
       <c r="D68">
-        <v>0.01899848324745869</v>
+        <v>0.004009349140001681</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.005699504520151777</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C69">
-        <v>36.65611556982342</v>
+        <v>0.004264951117734839</v>
       </c>
       <c r="D69">
-        <v>0.01961267078557627</v>
+        <v>0.003000204322249405</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004264951117734839</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C70">
-        <v>37.36659176029961</v>
+        <v>0.009043098763538815</v>
       </c>
       <c r="D70">
-        <v>0.01825599904100779</v>
+        <v>0.0063614196852289</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.009043098763538815</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C71">
-        <v>38.07706795077581</v>
+        <v>-0.007309020941188571</v>
       </c>
       <c r="D71">
-        <v>0.003790411500348893</v>
+        <v>-0.005141572696573333</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.007309020941188571</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C72">
-        <v>38.787544141252</v>
+        <v>-0.00748353468682339</v>
       </c>
       <c r="D72">
-        <v>0.0114975155014542</v>
+        <v>-0.005264335391734912</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.00748353468682339</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C73">
-        <v>39.49802033172819</v>
+        <v>0.001104311101047806</v>
       </c>
       <c r="D73">
-        <v>0.01130968703202018</v>
+        <v>0.0007768339769932182</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001104311101047806</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C74">
-        <v>40.20849652220438</v>
+        <v>0.003619888320166353</v>
       </c>
       <c r="D74">
-        <v>0.01967637188608837</v>
+        <v>0.002546431198018351</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003619888320166353</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C75">
-        <v>40.91897271268058</v>
+        <v>0.0001940482631841434</v>
       </c>
       <c r="D75">
-        <v>0.02078139719566848</v>
+        <v>0.0001365043635574565</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0001940482631841434</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C76">
-        <v>41.62944890315677</v>
+        <v>-0.0118409473147647</v>
       </c>
       <c r="D76">
-        <v>0.01460589555857352</v>
+        <v>-0.008329582293583802</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.0118409473147647</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C77">
-        <v>42.33992509363296</v>
+        <v>0.002073449392303139</v>
       </c>
       <c r="D77">
-        <v>0.02243231492651445</v>
+        <v>0.001458579865754053</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.002073449392303139</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C78">
-        <v>42.86239700374532</v>
+        <v>-0.005041658053825948</v>
       </c>
       <c r="D78">
-        <v>0.004865190201515431</v>
+        <v>-0.00335246584801552</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.005041658053825948</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C79">
-        <v>43.38486891385768</v>
+        <v>0.0001875293020026092</v>
       </c>
       <c r="D79">
-        <v>0.006985444315593816</v>
+        <v>0.0001246981793993044</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0001875293020026092</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C80">
-        <v>43.90734082397004</v>
+        <v>0.005432433030602368</v>
       </c>
       <c r="D80">
-        <v>0.0142379303684163</v>
+        <v>0.003612312856661385</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.005432433030602368</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C81">
-        <v>44.4298127340824</v>
+        <v>-0.01068716755684918</v>
       </c>
       <c r="D81">
-        <v>0.02023781248121347</v>
+        <v>-0.007106464552701538</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01068716755684918</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C82">
-        <v>45.14028892455859</v>
+        <v>-0.001528013879646295</v>
       </c>
       <c r="D82">
-        <v>0.01497363929575331</v>
+        <v>-0.001074890126432843</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.001528013879646295</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C83">
-        <v>45.66276083467095</v>
+        <v>0.006154386767796005</v>
       </c>
       <c r="D83">
-        <v>0.01953158705193966</v>
+        <v>0.004092378188730492</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006154386767796005</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C84">
-        <v>46.18523274478331</v>
+        <v>0.00032829787229538</v>
       </c>
       <c r="D84">
-        <v>0.01654136143665887</v>
+        <v>0.0002183026681095929</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.00032829787229538</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C85">
-        <v>46.70770465489566</v>
+        <v>-0.005539190433917263</v>
       </c>
       <c r="D85">
-        <v>0.002207463930141512</v>
+        <v>-0.003683301516506018</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.005539190433917263</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C86">
-        <v>47.23017656500802</v>
+        <v>0.00415961450503044</v>
       </c>
       <c r="D86">
-        <v>0.00810183610728139</v>
+        <v>0.002765948309096877</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.00415961450503044</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C87">
-        <v>47.75264847512038</v>
+        <v>0.004067560763830969</v>
       </c>
       <c r="D87">
-        <v>0.004740589020253465</v>
+        <v>0.002704736894070605</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.004067560763830969</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C88">
-        <v>48.27512038523274</v>
+        <v>-0.004292978492010491</v>
       </c>
       <c r="D88">
-        <v>0.009045338054567351</v>
+        <v>-0.002854629097625666</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.004292978492010491</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C89">
-        <v>48.98559657570893</v>
+        <v>-0.009940561698297934</v>
       </c>
       <c r="D89">
-        <v>0.01373527071415403</v>
+        <v>-0.006992745133421375</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.009940561698297934</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C90">
-        <v>49.50806848582129</v>
+        <v>0.001005149102710767</v>
       </c>
       <c r="D90">
-        <v>0.01475185210109343</v>
+        <v>0.0006683769511984487</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.001005149102710767</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C91">
-        <v>50.03054039593365</v>
+        <v>-0.002220262219753799</v>
       </c>
       <c r="D91">
-        <v>0.01089861085495557</v>
+        <v>-0.001476370111954583</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.002220262219753799</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C92">
-        <v>50.55301230604601</v>
+        <v>-0.02367366876449672</v>
       </c>
       <c r="D92">
-        <v>0.01098672189118538</v>
+        <v>-0.01574187800578412</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02367366876449672</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C93">
-        <v>51.07548421615837</v>
+        <v>0.01261306716667132</v>
       </c>
       <c r="D93">
-        <v>0.01691957643600826</v>
+        <v>0.008387097352408279</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01261306716667132</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C94">
-        <v>51.59795612627072</v>
+        <v>-0.0003073908306472362</v>
       </c>
       <c r="D94">
-        <v>0.01882454444125899</v>
+        <v>-0.0002044004672145419</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.0003073908306472362</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C95">
-        <v>52.12042803638308</v>
+        <v>0.01369250473480044</v>
       </c>
       <c r="D95">
-        <v>0.01272859483231472</v>
+        <v>0.009104872644501247</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01369250473480044</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C96">
-        <v>52.64289994649544</v>
+        <v>0.001808430046954967</v>
       </c>
       <c r="D96">
-        <v>0.01465738340067912</v>
+        <v>0.001202521056806074</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.001808430046954967</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C97">
-        <v>53.1653718566078</v>
+        <v>-0.01010652210290619</v>
       </c>
       <c r="D97">
-        <v>0.02080608060216354</v>
+        <v>-0.006720362593114628</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.01010652210290619</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C98">
-        <v>53.68784376672016</v>
+        <v>0.01280833282491312</v>
       </c>
       <c r="D98">
-        <v>0.02007195819084534</v>
+        <v>0.008516939845405025</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01280833282491312</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C99">
-        <v>54.21031567683251</v>
+        <v>-0.02874949190382381</v>
       </c>
       <c r="D99">
-        <v>0.01964958278062369</v>
+        <v>-0.0191170620312552</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.02874949190382381</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C100">
-        <v>54.73278758694487</v>
+        <v>0.003469903552287157</v>
       </c>
       <c r="D100">
-        <v>0.01822988342740037</v>
+        <v>0.002307322914556399</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003469903552287157</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C101">
-        <v>55.25525949705723</v>
+        <v>0.01186906180278324</v>
       </c>
       <c r="D101">
-        <v>0.01911106482963662</v>
+        <v>0.007892368724138392</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01186906180278324</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C102">
-        <v>55.77773140716959</v>
+        <v>0.009819111831106397</v>
       </c>
       <c r="D102">
-        <v>0.01914582224893961</v>
+        <v>0.006529248259240583</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.009819111831106397</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C103">
-        <v>56.30020331728195</v>
+        <v>-0.008615086802471694</v>
       </c>
       <c r="D103">
-        <v>0.02201805214555218</v>
+        <v>-0.00572862815657602</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.008615086802471694</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C104">
-        <v>56.82267522739431</v>
+        <v>0.007459313015980129</v>
       </c>
       <c r="D104">
-        <v>0.02569119119917313</v>
+        <v>0.004960092864043798</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.007459313015980129</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C105">
-        <v>57.34514713750666</v>
+        <v>-0.004893656102685107</v>
       </c>
       <c r="D105">
-        <v>0.02195462754768654</v>
+        <v>-0.003254051500723005</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.004893656102685107</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C106">
-        <v>57.86761904761902</v>
+        <v>-0.02345815133465923</v>
       </c>
       <c r="D106">
-        <v>0.01593719941839972</v>
+        <v>-0.01559856903570551</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02345815133465923</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C107">
-        <v>58.39009095773138</v>
+        <v>0.009646439462210665</v>
       </c>
       <c r="D107">
-        <v>0.01274333642481974</v>
+        <v>0.006414429242671304</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.009646439462210665</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C108">
-        <v>58.91256286784374</v>
+        <v>-0.005500851586585753</v>
       </c>
       <c r="D108">
-        <v>0.008889691231292428</v>
+        <v>-0.003657807983434367</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.005500851586585753</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C109">
-        <v>59.4350347779561</v>
+        <v>0.007044940446849779</v>
       </c>
       <c r="D109">
-        <v>0.006318843623959737</v>
+        <v>0.004684554564632605</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.007044940446849779</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C110">
-        <v>59.95750668806846</v>
+        <v>0.007675313014336993</v>
       </c>
       <c r="D110">
-        <v>0.0117660962643708</v>
+        <v>0.005103722719526218</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.007675313014336993</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C111">
-        <v>60.47997859818081</v>
+        <v>0.001663687075199149</v>
       </c>
       <c r="D111">
-        <v>0.005857778560492656</v>
+        <v>0.001106273777761947</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.001663687075199149</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C112">
-        <v>61.00245050829317</v>
+        <v>-0.006306025017951633</v>
       </c>
       <c r="D112">
-        <v>-0.003497386444617158</v>
+        <v>-0.004193210504106144</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.006306025017951633</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C113">
-        <v>61.52492241840553</v>
+        <v>0.0001441981862360109</v>
       </c>
       <c r="D113">
-        <v>0.002174527337551468</v>
+        <v>9.588502225674687e-05</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0001441981862360109</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C114">
-        <v>62.04739432851789</v>
+        <v>0.009709417811568422</v>
       </c>
       <c r="D114">
-        <v>0.01181294582298325</v>
+        <v>0.006456306887511983</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.009709417811568422</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C115">
-        <v>62.56986623863025</v>
+        <v>0.003117576900109498</v>
       </c>
       <c r="D115">
-        <v>0.009183823064651642</v>
+        <v>0.002073042236223822</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003117576900109498</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C116">
-        <v>63.28034242910644</v>
+        <v>-0.0092192033507974</v>
       </c>
       <c r="D116">
-        <v>-0.002105915923205848</v>
+        <v>-0.006485301467053816</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.0092192033507974</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C117">
-        <v>63.99081861958263</v>
+        <v>0.002917001480188475</v>
       </c>
       <c r="D117">
-        <v>0.00206743463274366</v>
+        <v>0.002051981419547299</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.002917001480188475</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C118">
-        <v>64.513290529695</v>
+        <v>0.01006265528254513</v>
       </c>
       <c r="D118">
-        <v>0.005201047109756134</v>
+        <v>0.006691193217573602</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.01006265528254513</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C119">
-        <v>65.03576243980736</v>
+        <v>-0.001201428614585609</v>
       </c>
       <c r="D119">
-        <v>0.01007711538673465</v>
+        <v>-0.0007988936092503</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.001201428614585609</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C120">
-        <v>65.55823434991972</v>
+        <v>-0.0006912388126476543</v>
       </c>
       <c r="D120">
-        <v>0.009871538777294487</v>
+        <v>-0.000459641349628124</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.0006912388126476543</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C121">
-        <v>66.08070626003207</v>
+        <v>-0.002323410102694545</v>
       </c>
       <c r="D121">
-        <v>0.02141004889502417</v>
+        <v>-0.00154495861025457</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.002323410102694545</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C122">
-        <v>66.60317817014443</v>
+        <v>0.00144209812282714</v>
       </c>
       <c r="D122">
-        <v>0.02068799976686458</v>
+        <v>0.000958927530318418</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.00144209812282714</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C123">
-        <v>67.12565008025679</v>
+        <v>5.688228213163171e-05</v>
       </c>
       <c r="D123">
-        <v>0.02567895028713484</v>
+        <v>3.782404640845603e-05</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5.688228213163171e-05</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C124">
-        <v>67.64812199036915</v>
+        <v>0.004700550115698476</v>
       </c>
       <c r="D124">
-        <v>0.02345294297420781</v>
+        <v>0.003125645087692131</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.004700550115698476</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C125">
-        <v>68.17059390048151</v>
+        <v>0.006011278631921968</v>
       </c>
       <c r="D125">
-        <v>0.02296071814103338</v>
+        <v>0.003997217998775364</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.006011278631921968</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C126">
-        <v>68.69306581059386</v>
+        <v>-0.006115076207870551</v>
       </c>
       <c r="D126">
-        <v>0.02410037696197377</v>
+        <v>-0.004066238512415784</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.006115076207870551</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C127">
-        <v>69.40354200107005</v>
+        <v>-0.009100451468841975</v>
       </c>
       <c r="D127">
-        <v>0.02823148365017655</v>
+        <v>-0.006401764774678512</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.009100451468841975</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C128">
-        <v>70.11401819154624</v>
+        <v>-0.004830235533639815</v>
       </c>
       <c r="D128">
-        <v>0.02427457785445485</v>
+        <v>-0.003397856886389246</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.004830235533639815</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C129">
-        <v>70.63649010165859</v>
+        <v>-0.006306686098372261</v>
       </c>
       <c r="D129">
-        <v>0.02555478977117797</v>
+        <v>-0.004193650091541327</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.006306686098372261</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C130">
-        <v>71.15896201177095</v>
+        <v>-0.004207322691105908</v>
       </c>
       <c r="D130">
-        <v>0.03238610088693099</v>
+        <v>-0.002797672012446295</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.004207322691105908</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C131">
-        <v>71.68143392188331</v>
+        <v>0.008914705629699426</v>
       </c>
       <c r="D131">
-        <v>0.04001067693046405</v>
+        <v>0.00592786060649221</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.008914705629699426</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C132">
-        <v>72.20390583199567</v>
+        <v>-0.009669262025056469</v>
       </c>
       <c r="D132">
-        <v>0.04513573550527193</v>
+        <v>-0.006429605175209347</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.009669262025056469</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C133">
-        <v>72.72637774210803</v>
+        <v>-0.01531020271009975</v>
       </c>
       <c r="D133">
-        <v>0.04426721292423849</v>
+        <v>-0.01018056583049177</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01531020271009975</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C134">
-        <v>73.24884965222039</v>
+        <v>0.009282374999455278</v>
       </c>
       <c r="D134">
-        <v>0.04537076417868758</v>
+        <v>0.006172343471515653</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.009282374999455278</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C135">
-        <v>73.77132156233274</v>
+        <v>0.01577376141801157</v>
       </c>
       <c r="D135">
-        <v>0.04308322106186953</v>
+        <v>0.01048881060239676</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01577376141801157</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C136">
-        <v>74.2937934724451</v>
+        <v>-0.004302692935699959</v>
       </c>
       <c r="D136">
-        <v>0.03714345201302181</v>
+        <v>-0.002861088746485965</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004302692935699959</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C137">
-        <v>74.81626538255746</v>
+        <v>-0.01847623129616682</v>
       </c>
       <c r="D137">
-        <v>0.04083627248219484</v>
+        <v>-0.01228582616257163</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01847623129616682</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C138">
-        <v>75.33873729266982</v>
+        <v>0.006829900162850677</v>
       </c>
       <c r="D138">
-        <v>0.04177595339363886</v>
+        <v>0.004541562874129623</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.006829900162850677</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C139">
-        <v>75.86120920278218</v>
+        <v>0.005128315984993748</v>
       </c>
       <c r="D139">
-        <v>0.04703767090256453</v>
+        <v>0.003410089302759592</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.005128315984993748</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C140">
-        <v>76.38368111289454</v>
+        <v>0.007979933406631723</v>
       </c>
       <c r="D140">
-        <v>0.04429738908416538</v>
+        <v>0.005306280975336961</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.007979933406631723</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C141">
-        <v>76.90615302300689</v>
+        <v>-0.0003364365632529953</v>
       </c>
       <c r="D141">
-        <v>0.04811861118476318</v>
+        <v>-0.0002237145154010316</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.0003364365632529953</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C142">
-        <v>77.61662921348308</v>
+        <v>0.01745025434339276</v>
       </c>
       <c r="D142">
-        <v>0.04893656286992722</v>
+        <v>0.01227548149091199</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.01745025434339276</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C143">
-        <v>78.13910112359544</v>
+        <v>-0.001181670073455265</v>
       </c>
       <c r="D143">
-        <v>0.04838910777032012</v>
+        <v>-0.0007857551072656564</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.001181670073455265</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C144">
-        <v>78.84957731407162</v>
+        <v>0.007548059073950952</v>
       </c>
       <c r="D144">
-        <v>0.06284734695918819</v>
+        <v>0.005309725441891787</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.007548059073950952</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C145">
-        <v>79.56005350454781</v>
+        <v>-0.003366499954022828</v>
       </c>
       <c r="D145">
-        <v>0.06034855737323114</v>
+        <v>-0.002368183698732761</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.003366499954022828</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C146">
-        <v>80.270529695024</v>
+        <v>-0.0007444157387208605</v>
       </c>
       <c r="D146">
-        <v>0.06465820356273436</v>
+        <v>-0.0005236635204501457</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.0007444157387208605</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C147">
-        <v>80.98100588550018</v>
+        <v>0.001723561888596237</v>
       </c>
       <c r="D147">
-        <v>0.06409028082610399</v>
+        <v>0.001212449494749935</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001723561888596237</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C148">
-        <v>81.69148207597637</v>
+        <v>0.006247675106516581</v>
       </c>
       <c r="D148">
-        <v>0.06554131991250864</v>
+        <v>0.004394962882607751</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.006247675106516581</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C149">
-        <v>82.40195826645255</v>
+        <v>-0.005984222559383134</v>
       </c>
       <c r="D149">
-        <v>0.06818361410331639</v>
+        <v>-0.00420963567748912</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.005984222559383134</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C150">
-        <v>83.11243445692874</v>
+        <v>0.001936127223733486</v>
       </c>
       <c r="D150">
-        <v>0.07519582231551866</v>
+        <v>0.001361979798763801</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001936127223733486</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C151">
-        <v>83.82291064740492</v>
+        <v>0.01033132659697245</v>
       </c>
       <c r="D151">
-        <v>0.07474640266910139</v>
+        <v>0.007267630942337582</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.01033132659697245</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C152">
-        <v>84.53338683788111</v>
+        <v>0.0115310200244787</v>
       </c>
       <c r="D152">
-        <v>0.07792036212451181</v>
+        <v>0.00811156216387292</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0115310200244787</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C153">
-        <v>85.2438630283573</v>
+        <v>0.007750877257347355</v>
       </c>
       <c r="D153">
-        <v>0.07559888772994354</v>
+        <v>0.005452399056115961</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.007750877257347355</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C154">
-        <v>85.95433921883348</v>
+        <v>-0.001313509264833534</v>
       </c>
       <c r="D154">
-        <v>0.07267975428853336</v>
+        <v>-0.0009239956250099316</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.001313509264833534</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C155">
-        <v>86.66481540930967</v>
+        <v>0.00166895464619099</v>
       </c>
       <c r="D155">
-        <v>0.07130225403501644</v>
+        <v>0.001174035716920435</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.00166895464619099</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C156">
-        <v>87.37529159978585</v>
+        <v>-0.003459563566063473</v>
       </c>
       <c r="D156">
-        <v>0.07731205066358926</v>
+        <v>-0.002433649830320401</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.003459563566063473</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C157">
-        <v>88.08576779026204</v>
+        <v>-0.008983003835489889</v>
       </c>
       <c r="D157">
-        <v>0.07750723040481089</v>
+        <v>-0.006319145563462784</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.008983003835489889</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C158">
-        <v>88.79624398073823</v>
+        <v>0.005584833377451304</v>
       </c>
       <c r="D158">
-        <v>0.08156993446980265</v>
+        <v>0.003928683067057342</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.005584833377451304</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C159">
-        <v>89.50672017121441</v>
+        <v>0.001421125495321363</v>
       </c>
       <c r="D159">
-        <v>0.0770421484717968</v>
+        <v>0.000999698879500044</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001421125495321363</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C160">
-        <v>90.2171963616906</v>
+        <v>0.007957553260949268</v>
       </c>
       <c r="D160">
-        <v>0.07801213412994204</v>
+        <v>0.005597786476087382</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.007957553260949268</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C161">
-        <v>90.92767255216678</v>
+        <v>-0.004144262492794759</v>
       </c>
       <c r="D161">
-        <v>0.07910668000305791</v>
+        <v>-0.002915305216914788</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.004144262492794759</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C162">
-        <v>91.63814874264297</v>
+        <v>0.005779021457507305</v>
       </c>
       <c r="D162">
-        <v>0.08492142128164396</v>
+        <v>0.004065285785595123</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.005779021457507305</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C163">
-        <v>92.60243445692868</v>
+        <v>0.001097421170646484</v>
       </c>
       <c r="D163">
-        <v>0.08418316385625579</v>
+        <v>0.0008248010653929156</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001097421170646484</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C164">
-        <v>93.56672017121439</v>
+        <v>-0.0007345040387889412</v>
       </c>
       <c r="D164">
-        <v>0.09130409611947374</v>
+        <v>-0.000552039390101827</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.0007345040387889412</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C165">
-        <v>94.27719636169057</v>
+        <v>0.0218659037110589</v>
       </c>
       <c r="D165">
-        <v>0.09072485776519976</v>
+        <v>0.01538169536129414</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0218659037110589</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C166">
-        <v>94.98767255216676</v>
+        <v>-0.003779041954348195</v>
       </c>
       <c r="D166">
-        <v>0.09152890633288013</v>
+        <v>-0.002658388734691752</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.003779041954348195</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C167">
-        <v>95.69814874264294</v>
+        <v>0.006517689144398986</v>
       </c>
       <c r="D167">
-        <v>0.09409195255320767</v>
+        <v>0.004584905806022325</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.006517689144398986</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C168">
-        <v>96.40862493311913</v>
+        <v>-0.0008588973880057083</v>
       </c>
       <c r="D168">
-        <v>0.0992106493332644</v>
+        <v>-0.0006041962931645632</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.0008588973880057083</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C169">
-        <v>97.11910112359531</v>
+        <v>0.002194477524533944</v>
       </c>
       <c r="D169">
-        <v>0.1013622504326764</v>
+        <v>0.001543717799439325</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002194477524533944</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C170">
-        <v>97.8295773140715</v>
+        <v>0.003996071001299839</v>
       </c>
       <c r="D170">
-        <v>0.1007030962021329</v>
+        <v>0.002811059062379779</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.003996071001299839</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C171">
-        <v>98.54005350454769</v>
+        <v>0.01060490614154208</v>
       </c>
       <c r="D171">
-        <v>0.09992123003223134</v>
+        <v>0.007460082041878618</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.01060490614154208</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C172">
-        <v>99.25052969502387</v>
+        <v>-0.0006796793569430193</v>
       </c>
       <c r="D172">
-        <v>0.100342776301215</v>
+        <v>-0.0004781243414407927</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.0006796793569430193</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C173">
-        <v>99.96100588550006</v>
+        <v>0.004800134437410897</v>
       </c>
       <c r="D173">
-        <v>0.09598680795350546</v>
+        <v>0.003376682097624396</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.004800134437410897</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C174">
-        <v>100.6714820759762</v>
+        <v>-0.003510879500347563</v>
       </c>
       <c r="D174">
-        <v>0.09795972778549436</v>
+        <v>-0.002469748318577206</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.003510879500347563</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C175">
-        <v>101.3819582664524</v>
+        <v>-0.004414748567636906</v>
       </c>
       <c r="D175">
-        <v>0.09921064933326437</v>
+        <v>-0.00310558019743571</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.004414748567636906</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C176">
-        <v>102.0924344569286</v>
+        <v>-0.002083261143483561</v>
       </c>
       <c r="D176">
-        <v>0.09356557240025418</v>
+        <v>-0.001465481998389977</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.002083261143483561</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C177">
-        <v>102.8029106474048</v>
+        <v>0.009088909976298964</v>
       </c>
       <c r="D177">
-        <v>0.09744198817786913</v>
+        <v>0.006393645845561421</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.009088909976298964</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C178">
-        <v>103.513386837881</v>
+        <v>0.0002951798882389056</v>
       </c>
       <c r="D178">
-        <v>0.09584725466122895</v>
+        <v>0.0002076459851680112</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0002951798882389056</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C179">
-        <v>104.2238630283572</v>
+        <v>0.006144226467081459</v>
       </c>
       <c r="D179">
-        <v>0.1000876619810778</v>
+        <v>0.004322191343943808</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.006144226467081459</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C180">
-        <v>104.9343392188334</v>
+        <v>-0.006847592667639901</v>
       </c>
       <c r="D180">
-        <v>0.1031922479986392</v>
+        <v>-0.004816978331364276</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.006847592667639901</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C181">
-        <v>105.6448154093095</v>
+        <v>0.001466956848966916</v>
       </c>
       <c r="D181">
-        <v>0.1034627241220453</v>
+        <v>0.001031939208053906</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.001466956848966916</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C182">
-        <v>106.3552915997857</v>
+        <v>0.001655335366654853</v>
       </c>
       <c r="D182">
-        <v>0.1011241444649835</v>
+        <v>0.001164455156627416</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.001655335366654853</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C183">
-        <v>107.0657677902619</v>
+        <v>0.008793918211020824</v>
       </c>
       <c r="D183">
-        <v>0.1047308295218682</v>
+        <v>0.006186132196569</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.008793918211020824</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C184">
-        <v>107.7762439807381</v>
+        <v>-0.001116502885769144</v>
       </c>
       <c r="D184">
-        <v>0.1103200150076518</v>
+        <v>-0.0007854103578724251</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.001116502885769144</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C185">
-        <v>108.4867201712143</v>
+        <v>0.01076933485236431</v>
       </c>
       <c r="D185">
-        <v>0.1137737949577283</v>
+        <v>0.007575750361466008</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.01076933485236431</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C186">
-        <v>109.1971963616905</v>
+        <v>-0.00087601055113673</v>
       </c>
       <c r="D186">
-        <v>0.1141703142349531</v>
+        <v>-0.000616234645908995</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.00087601055113673</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C187">
-        <v>109.9076725521667</v>
+        <v>0.001216002054624354</v>
       </c>
       <c r="D187">
-        <v>0.1144471935293151</v>
+        <v>0.0008554036188076576</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.001216002054624354</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C188">
-        <v>110.6181487426428</v>
+        <v>0.003876220411668463</v>
       </c>
       <c r="D188">
-        <v>0.1152283451056524</v>
+        <v>0.002726749477789002</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.003876220411668463</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C189">
-        <v>111.328624933119</v>
+        <v>0.007741256003359176</v>
       </c>
       <c r="D189">
-        <v>0.111945647692196</v>
+        <v>0.005445630929822377</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.007741256003359176</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C190">
-        <v>112.0391011235952</v>
+        <v>0.003253971790740273</v>
       </c>
       <c r="D190">
-        <v>0.1007640539950926</v>
+        <v>0.002289025116949433</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.003253971790740273</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C191">
-        <v>112.7495773140714</v>
+        <v>-0.0009968712474268671</v>
       </c>
       <c r="D191">
-        <v>0.09573559081723854</v>
+        <v>-0.0007012547958215985</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.0009968712474268671</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C192">
-        <v>113.4600535045476</v>
+        <v>-0.001182454527323351</v>
       </c>
       <c r="D192">
-        <v>0.09888285875309775</v>
+        <v>-0.0008318044183406882</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.001182454527323351</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C193">
-        <v>114.1705296950238</v>
+        <v>0.0006375250822001632</v>
       </c>
       <c r="D193">
-        <v>0.09703530623626541</v>
+        <v>0.0004484706751282053</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0006375250822001632</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C194">
-        <v>114.8810058855</v>
+        <v>-0.006587744414463081</v>
       </c>
       <c r="D194">
-        <v>0.09188844376815389</v>
+        <v>-0.004634186587499201</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.006587744414463081</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C195">
-        <v>115.5914820759761</v>
+        <v>0.002983743353002666</v>
       </c>
       <c r="D195">
-        <v>0.07862553222424172</v>
+        <v>0.002098931372727186</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002983743353002666</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C196">
-        <v>116.3019582664523</v>
+        <v>0.001891829963270197</v>
       </c>
       <c r="D196">
-        <v>0.0847170632743408</v>
+        <v>0.001330818636856663</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.001891829963270197</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C197">
-        <v>117.0124344569285</v>
+        <v>-0.008537326506104392</v>
       </c>
       <c r="D197">
-        <v>0.09584725466122895</v>
+        <v>-0.006005631290253224</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.008537326506104392</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C198">
-        <v>117.7229106474047</v>
+        <v>0.005862493560254478</v>
       </c>
       <c r="D198">
-        <v>0.1087287020296122</v>
+        <v>0.00412400471496525</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.005862493560254478</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C199">
-        <v>118.4333868378809</v>
+        <v>-0.002411793653718242</v>
       </c>
       <c r="D199">
-        <v>0.1094619473300185</v>
+        <v>-0.001696590076770259</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.002411793653718242</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C200">
-        <v>119.1438630283571</v>
+        <v>0.006412975808483878</v>
       </c>
       <c r="D200">
-        <v>0.1040915672982862</v>
+        <v>0.004511244609366801</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.006412975808483878</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C201">
-        <v>119.8543392188333</v>
+        <v>0.004695217587419975</v>
       </c>
       <c r="D201">
-        <v>0.1074682479798407</v>
+        <v>0.003302877737825137</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.004695217587419975</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C202">
-        <v>120.5648154093094</v>
+        <v>0.0004090542972265965</v>
       </c>
       <c r="D202">
-        <v>0.1115259844394949</v>
+        <v>0.0002877515912130152</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0004090542972265965</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C203">
-        <v>121.2752915997856</v>
+        <v>-0.003536748627130493</v>
       </c>
       <c r="D203">
-        <v>0.1124412702043072</v>
+        <v>-0.002487946104165938</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.003536748627130493</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C204">
-        <v>121.9857677902618</v>
+        <v>0.005454566572026032</v>
       </c>
       <c r="D204">
-        <v>0.10884914138965</v>
+        <v>0.003837046135731832</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.005454566572026032</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C205">
-        <v>122.696243980738</v>
+        <v>0.008452799131272393</v>
       </c>
       <c r="D205">
-        <v>0.109724404689624</v>
+        <v>0.005946170023683292</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.008452799131272393</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C206">
-        <v>123.4067201712142</v>
+        <v>0.005223320685253441</v>
       </c>
       <c r="D206">
-        <v>0.1072872029620053</v>
+        <v>0.00367437489054157</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.005223320685253441</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C207">
-        <v>124.1171963616904</v>
+        <v>0.0005996755360122563</v>
       </c>
       <c r="D207">
-        <v>0.1102817809205125</v>
+        <v>0.0004218451948041898</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0005996755360122563</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C208">
-        <v>124.8276725521666</v>
+        <v>0.0004187381264770806</v>
       </c>
       <c r="D208">
-        <v>0.1061614175562238</v>
+        <v>0.0002945637364337225</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0004187381264770806</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C209">
-        <v>125.5381487426427</v>
+        <v>0.001181373812454645</v>
       </c>
       <c r="D209">
-        <v>0.1063702444997066</v>
+        <v>0.0008310441832686542</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.001181373812454645</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C210">
-        <v>126.2486249331189</v>
+        <v>-0.004964584180516596</v>
       </c>
       <c r="D210">
-        <v>0.08443312789015994</v>
+        <v>-0.003492365212492208</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.004964584180516596</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C211">
-        <v>126.9591011235951</v>
+        <v>-0.0169104721483162</v>
       </c>
       <c r="D211">
-        <v>0.06462894111561138</v>
+        <v>-0.01189576861026306</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.0169104721483162</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C212">
-        <v>127.6695773140713</v>
+        <v>-0.007604791304477665</v>
       </c>
       <c r="D212">
-        <v>0.06394968855260426</v>
+        <v>-0.005349634054801633</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.007604791304477665</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C213">
-        <v>128.3800535045475</v>
+        <v>0.004759767544265436</v>
       </c>
       <c r="D213">
-        <v>0.04154592895797189</v>
+        <v>0.003348285775146705</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.004759767544265436</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C214">
-        <v>129.0905296950237</v>
+        <v>-0.002794144218148276</v>
       </c>
       <c r="D214">
-        <v>0.03216464367257498</v>
+        <v>-0.001965556774007986</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.002794144218148276</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C215">
-        <v>129.8010058854999</v>
+        <v>-0.007783852353780318</v>
       </c>
       <c r="D215">
-        <v>0.06729284279559994</v>
+        <v>-0.005475595576806053</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.007783852353780318</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C216">
-        <v>130.5114820759761</v>
+        <v>-0.02005815113162335</v>
       </c>
       <c r="D216">
-        <v>0.04808290517579089</v>
+        <v>-0.01411002144225973</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.02005815113162335</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C217">
-        <v>131.2219582664522</v>
+        <v>0.009212520947706082</v>
       </c>
       <c r="D217">
-        <v>0.09019192846277246</v>
+        <v>0.006480600692277237</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.009212520947706082</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C218">
-        <v>131.9324344569284</v>
+        <v>0.01683273391539508</v>
       </c>
       <c r="D218">
-        <v>0.07212239625848207</v>
+        <v>0.01184108320450445</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.01683273391539508</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C219">
-        <v>132.6429106474046</v>
+        <v>0.01948124416374331</v>
       </c>
       <c r="D219">
-        <v>0.06868764575372199</v>
+        <v>0.01370419292728046</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.01948124416374331</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C220">
-        <v>133.3533868378808</v>
+        <v>0.001108922803519263</v>
       </c>
       <c r="D220">
-        <v>0.0334575364473327</v>
+        <v>0.0007800781055437803</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001108922803519263</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C221">
-        <v>134.063863028357</v>
+        <v>-0.008121888919645492</v>
       </c>
       <c r="D221">
-        <v>0.05887261581199919</v>
+        <v>-0.005713389337623101</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.008121888919645492</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C222">
-        <v>134.7743392188332</v>
+        <v>0.005106719682899552</v>
       </c>
       <c r="D222">
-        <v>0.03450471449455744</v>
+        <v>0.003592351246756751</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.005106719682899552</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C223">
-        <v>135.4848154093094</v>
+        <v>0.00613671371407154</v>
       </c>
       <c r="D223">
-        <v>-0.02288402616795288</v>
+        <v>0.004316906454755131</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.00613671371407154</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C224">
-        <v>136.1952915997855</v>
+        <v>0.001384231519485191</v>
       </c>
       <c r="D224">
-        <v>0.01819271587988084</v>
+        <v>0.0009737456006199248</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.001384231519485191</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C225">
-        <v>136.9057677902617</v>
+        <v>-0.005432552453516593</v>
       </c>
       <c r="D225">
-        <v>-0.04613408050646115</v>
+        <v>-0.003821560177820641</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.005432552453516593</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C226">
-        <v>137.6162439807379</v>
+        <v>0.001323703584444225</v>
       </c>
       <c r="D226">
-        <v>-0.00905848881837093</v>
+        <v>0.0009311668776020664</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.001323703584444225</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C227">
-        <v>138.3267201712141</v>
+        <v>-0.003685899617815735</v>
       </c>
       <c r="D227">
-        <v>-0.03017627283905047</v>
+        <v>-0.002592867223908878</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.003685899617815735</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C228">
-        <v>139.0371963616903</v>
+        <v>0.004528847008312908</v>
       </c>
       <c r="D228">
-        <v>-0.04168639058808998</v>
+        <v>0.003185843399856626</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.004528847008312908</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C229">
-        <v>139.7476725521665</v>
+        <v>-0.006231427451240279</v>
       </c>
       <c r="D229">
-        <v>-0.06711570432744485</v>
+        <v>-0.004383533376327204</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.006231427451240279</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C230">
-        <v>140.4581487426427</v>
+        <v>0.0003158192210559463</v>
       </c>
       <c r="D230">
-        <v>-0.09829699525424171</v>
+        <v>0.0002221648421998162</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.0003158192210559463</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C231">
-        <v>141.1686249331188</v>
+        <v>-0.03317657656763195</v>
       </c>
       <c r="D231">
-        <v>-0.0536065633813697</v>
+        <v>-0.02333825304626531</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.03317657656763195</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C232">
-        <v>141.879101123595</v>
+        <v>-0.02995084224512734</v>
       </c>
       <c r="D232">
-        <v>-0.04592155002664864</v>
+        <v>-0.0210690917382814</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.02995084224512734</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C233">
-        <v>142.5895773140712</v>
+        <v>-0.001027266940613281</v>
       </c>
       <c r="D233">
-        <v>-0.004691150231906339</v>
+        <v>-0.0007226368205056419</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.001027266940613281</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C234">
-        <v>143.3000535045474</v>
+        <v>-0.03388230362374411</v>
       </c>
       <c r="D234">
-        <v>-0.01961249926683815</v>
+        <v>-0.02383470079106398</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.03388230362374411</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C235">
-        <v>144.0105296950236</v>
+        <v>-0.01418777750574218</v>
       </c>
       <c r="D235">
-        <v>0.008291463001720064</v>
+        <v>-0.009980473449939084</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.01418777750574218</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C236">
-        <v>144.9748154093093</v>
+        <v>0.04713044804909394</v>
       </c>
       <c r="D236">
-        <v>0.005882578019886068</v>
+        <v>0.03542235634149298</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.04713044804909394</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C237">
-        <v>145.939101123595</v>
+        <v>-0.02577339543783541</v>
       </c>
       <c r="D237">
-        <v>-0.02346506825649597</v>
+        <v>-0.01937079818079019</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.02577339543783541</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C238">
-        <v>146.9033868378808</v>
+        <v>0.05649640983514992</v>
       </c>
       <c r="D238">
-        <v>-0.006677599083199731</v>
+        <v>0.04246163667086509</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.05649640983514992</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C239">
-        <v>147.8676725521665</v>
+        <v>-0.02424334779711312</v>
       </c>
       <c r="D239">
-        <v>-0.01257886757270954</v>
+        <v>-0.01822084321552719</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.02424334779711312</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C240">
-        <v>148.5781487426427</v>
+        <v>-0.005194541522484997</v>
       </c>
       <c r="D240">
-        <v>0.02660150504498318</v>
+        <v>-0.003654130023450465</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.005194541522484997</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C241">
-        <v>149.2886249331189</v>
+        <v>-0.0532802209010832</v>
       </c>
       <c r="D241">
-        <v>0.02087399600425057</v>
+        <v>-0.03748027694224354</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.0532802209010832</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C242">
-        <v>150.2529106474046</v>
+        <v>0.03409864745599478</v>
       </c>
       <c r="D242">
-        <v>0.04604643124780589</v>
+        <v>0.02562790066606232</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.03409864745599478</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C243">
-        <v>150.7753825575169</v>
+        <v>-0.03987930823090391</v>
       </c>
       <c r="D243">
-        <v>0.04944251386810879</v>
+        <v>-0.0265178672292409</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.03987930823090391</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C244">
-        <v>151.7396682718027</v>
+        <v>-0.07699674699875292</v>
       </c>
       <c r="D244">
-        <v>0.04208779544774479</v>
+        <v>-0.05786930365025544</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.07699674699875292</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C245">
-        <v>152.262140181915</v>
+        <v>0.06722417478251952</v>
       </c>
       <c r="D245">
-        <v>0.06632644705825366</v>
+        <v>0.0447009193629067</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.06722417478251952</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C246">
-        <v>152.7846120920274</v>
+        <v>-0.1052740696533174</v>
       </c>
       <c r="D246">
-        <v>0.06311523563804818</v>
+        <v>-0.07000231261747879</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1052740696533174</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C247">
-        <v>153.3070840021397</v>
+        <v>0.06067608898736765</v>
       </c>
       <c r="D247">
-        <v>0.07639687005072256</v>
+        <v>0.04034674980920931</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.06067608898736765</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C248">
-        <v>153.8295559122521</v>
+        <v>-0.03456032619073124</v>
       </c>
       <c r="D248">
-        <v>0.08890166113195096</v>
+        <v>-0.02298099395352263</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.03456032619073124</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C249">
-        <v>154.3520278223644</v>
+        <v>-0.01883689233259478</v>
       </c>
       <c r="D249">
-        <v>0.08412559112609178</v>
+        <v>-0.01252564881504546</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.01883689233259478</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C250">
-        <v>154.8744997324768</v>
+        <v>-0.04161636357195153</v>
       </c>
       <c r="D250">
-        <v>0.06035612307562994</v>
+        <v>-0.02767292745839625</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.04161636357195153</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C251">
-        <v>155.3969716425892</v>
+        <v>-0.05102976640081724</v>
       </c>
       <c r="D251">
-        <v>0.07007048995380817</v>
+        <v>-0.03393239828336356</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.05102976640081724</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C252">
-        <v>155.9194435527015</v>
+        <v>0.07313816173224641</v>
       </c>
       <c r="D252">
-        <v>0.07300586729684964</v>
+        <v>0.048633442961869</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.07313816173224641</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C253">
-        <v>156.4419154628139</v>
+        <v>0.01257691470180777</v>
       </c>
       <c r="D253">
-        <v>0.08367092373482905</v>
+        <v>0.008363057661004644</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.01257691470180777</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C254">
-        <v>156.9643873729262</v>
+        <v>0.06747564349011181</v>
       </c>
       <c r="D254">
-        <v>0.09340520214951731</v>
+        <v>0.04486813424440943</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.06747564349011181</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C255">
-        <v>157.4868592830386</v>
+        <v>-0.02441954559948201</v>
       </c>
       <c r="D255">
-        <v>0.07736098870089776</v>
+        <v>-0.0162378510744488</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.02441954559948201</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C256">
-        <v>158.009331193151</v>
+        <v>0.04566625158543491</v>
       </c>
       <c r="D256">
-        <v>0.08285396601949999</v>
+        <v>0.03036591280340338</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.04566625158543491</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C257">
-        <v>158.5318031032633</v>
+        <v>-0.00394226262786912</v>
       </c>
       <c r="D257">
-        <v>0.0795771510321473</v>
+        <v>-0.00262141951769413</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.00394226262786912</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C258">
-        <v>159.496088817549</v>
+        <v>-0.03937485418333342</v>
       </c>
       <c r="D258">
-        <v>0.06393037745426522</v>
+        <v>-0.02959339818546824</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.03937485418333342</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C259">
-        <v>160.0185607276614</v>
+        <v>0.02747354599222263</v>
       </c>
       <c r="D259">
-        <v>0.06437592081783518</v>
+        <v>0.01826861791884422</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.02747354599222263</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C260">
-        <v>160.5410326377738</v>
+        <v>-0.009657725627690184</v>
       </c>
       <c r="D260">
-        <v>0.0773780227097934</v>
+        <v>-0.006421934012713458</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.009657725627690184</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C261">
-        <v>161.5053183520595</v>
+        <v>0.05256712733081592</v>
       </c>
       <c r="D261">
-        <v>0.07134408049376434</v>
+        <v>0.03950846200785468</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.05256712733081592</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C262">
-        <v>162.0277902621718</v>
+        <v>-0.009373359463959119</v>
       </c>
       <c r="D262">
-        <v>0.07106814829811986</v>
+        <v>-0.006232843867752886</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.009373359463959119</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C263">
-        <v>162.5502621722842</v>
+        <v>0.04119596886588184</v>
       </c>
       <c r="D263">
-        <v>0.07435530197382782</v>
+        <v>0.02739338472072176</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.04119596886588184</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C264">
-        <v>163.0727340823966</v>
+        <v>0.005557861706200207</v>
       </c>
       <c r="D264">
-        <v>0.08466763948663293</v>
+        <v>0.003695717035765613</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.005557861706200207</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C265">
-        <v>164.0370197966823</v>
+        <v>-0.009867604462520774</v>
       </c>
       <c r="D265">
-        <v>0.07548925793482641</v>
+        <v>-0.007416305509003893</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.009867604462520774</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C266">
-        <v>165.001305510968</v>
+        <v>0.03252026972713207</v>
       </c>
       <c r="D266">
-        <v>0.06873366396816015</v>
+        <v>0.02444162171757848</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.03252026972713207</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C267">
-        <v>165.5237774210804</v>
+        <v>-0.005255310597031659</v>
       </c>
       <c r="D267">
-        <v>0.07526263502965329</v>
+        <v>-0.003494534756059623</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.005255310597031659</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C268">
-        <v>166.0462493311927</v>
+        <v>0.02173606933372252</v>
       </c>
       <c r="D268">
-        <v>0.07969547517145049</v>
+        <v>0.01445346537457137</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.02173606933372252</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C269">
-        <v>166.5687212413051</v>
+        <v>0.0204647257634134</v>
       </c>
       <c r="D269">
-        <v>0.08539909930100772</v>
+        <v>0.01360808160299229</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.0204647257634134</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C270">
-        <v>167.0911931514174</v>
+        <v>-0.007816281156707738</v>
       </c>
       <c r="D270">
-        <v>0.07797657832268264</v>
+        <v>-0.005197459914296394</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.007816281156707738</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C271">
-        <v>168.0554788657032</v>
+        <v>-0.03189078025843362</v>
       </c>
       <c r="D271">
-        <v>0.07872657000568051</v>
+        <v>-0.02396850929882476</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.03189078025843362</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C272">
-        <v>168.5779507758155</v>
+        <v>0.01589805482040685</v>
       </c>
       <c r="D272">
-        <v>0.0737479024556599</v>
+        <v>0.01057145987813406</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.01589805482040685</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C273">
-        <v>169.1004226859279</v>
+        <v>0.004803894119243424</v>
       </c>
       <c r="D273">
-        <v>0.07490408297864878</v>
+        <v>0.003194363996984029</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.004803894119243424</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C274">
-        <v>170.0647084002136</v>
+        <v>0.01430898540031844</v>
       </c>
       <c r="D274">
-        <v>0.07372148007970102</v>
+        <v>0.01075436370151471</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01430898540031844</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C275">
-        <v>171.0289941144993</v>
+        <v>0.01306018852580948</v>
       </c>
       <c r="D275">
-        <v>0.08010352655114029</v>
+        <v>0.00981579151054124</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.01306018852580948</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C276">
-        <v>171.993279828785</v>
+        <v>-0.02152603854756396</v>
       </c>
       <c r="D276">
-        <v>0.08774320046570629</v>
+        <v>-0.01617856480503337</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.02152603854756396</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C277">
-        <v>172.9575655430708</v>
+        <v>0.007369762430535332</v>
       </c>
       <c r="D277">
-        <v>0.09545685636971749</v>
+        <v>0.005538974522258728</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.007369762430535332</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C278">
-        <v>173.9218512573565</v>
+        <v>-0.004396404096522311</v>
       </c>
       <c r="D278">
-        <v>0.08928034701988016</v>
+        <v>-0.003304254446424823</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.004396404096522311</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C279">
-        <v>174.8861369716422</v>
+        <v>-0.02099280542864346</v>
       </c>
       <c r="D279">
-        <v>0.09298349842418989</v>
+        <v>-0.01577779684433389</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02099280542864346</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C280">
-        <v>175.4086088817546</v>
+        <v>0.0007291543450778093</v>
       </c>
       <c r="D280">
-        <v>0.09176357862116068</v>
+        <v>0.0004848533981693692</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.0007291543450778093</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C281">
-        <v>175.9310807918669</v>
+        <v>0.02127860016520522</v>
       </c>
       <c r="D281">
-        <v>0.08681801849788764</v>
+        <v>0.01414926986039712</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.02127860016520522</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C282">
-        <v>176.4535527019793</v>
+        <v>-0.009874852920068733</v>
       </c>
       <c r="D282">
-        <v>0.09685772597306289</v>
+        <v>-0.006566313465782231</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.009874852920068733</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C283">
-        <v>176.9760246120916</v>
+        <v>-0.0004515770536652752</v>
       </c>
       <c r="D283">
-        <v>0.1007479930627111</v>
+        <v>-0.0003002775344931338</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.0004515770536652752</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C284">
-        <v>177.498496522204</v>
+        <v>0.00537959395551546</v>
       </c>
       <c r="D284">
-        <v>0.09410388209598629</v>
+        <v>0.003577177353067452</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.00537959395551546</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C285">
-        <v>178.0209684323164</v>
+        <v>0.01687666413684585</v>
       </c>
       <c r="D285">
-        <v>0.09325994829025483</v>
+        <v>0.01122218911777814</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.01687666413684585</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C286">
-        <v>178.5434403424287</v>
+        <v>-0.01502088760936271</v>
       </c>
       <c r="D286">
-        <v>0.05787539226083723</v>
+        <v>-0.009988184874825792</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.01502088760936271</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C287">
-        <v>179.0659122525411</v>
+        <v>-0.0110558726650245</v>
       </c>
       <c r="D287">
-        <v>0.06211263334183284</v>
+        <v>-0.007351636135135345</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.0110558726650245</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C288">
-        <v>179.5883841626534</v>
+        <v>0.01068499276979473</v>
       </c>
       <c r="D288">
-        <v>0.06323188489524309</v>
+        <v>0.007105018421438988</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.01068499276979473</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C289">
-        <v>180.1108560727658</v>
+        <v>0.007254568050409915</v>
       </c>
       <c r="D289">
-        <v>0.07793459354376037</v>
+        <v>0.004823947076824777</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.007254568050409915</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C290">
-        <v>180.6333279828781</v>
+        <v>0.009334270593628347</v>
       </c>
       <c r="D290">
-        <v>0.0774568135338311</v>
+        <v>0.006206851604608031</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.009334270593628347</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C291">
-        <v>181.1557998929905</v>
+        <v>-0.01214733259499479</v>
       </c>
       <c r="D291">
-        <v>0.07561044034460318</v>
+        <v>-0.008077405733278961</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.01214733259499479</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C292">
-        <v>181.6782718031029</v>
+        <v>0.001227399483741287</v>
       </c>
       <c r="D292">
-        <v>0.08090836722678699</v>
+        <v>0.0008161630176389984</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.001227399483741287</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C293">
-        <v>182.2007437132152</v>
+        <v>-0.008147842328315669</v>
       </c>
       <c r="D293">
-        <v>0.07870560372705886</v>
+        <v>-0.005417932523203316</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.008147842328315669</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C294">
-        <v>182.7232156233276</v>
+        <v>0.001892148152037976</v>
       </c>
       <c r="D294">
-        <v>0.08136258177109518</v>
+        <v>0.001258189665258877</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.001892148152037976</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C295">
-        <v>183.2456875334399</v>
+        <v>-0.001935389712373059</v>
       </c>
       <c r="D295">
-        <v>0.06491228891471626</v>
+        <v>-0.001286943272245027</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.001935389712373059</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C296">
-        <v>183.7681594435523</v>
+        <v>0.01044454321539412</v>
       </c>
       <c r="D296">
-        <v>0.07115837061053222</v>
+        <v>0.006945130759345983</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01044454321539412</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C297">
-        <v>184.2906313536647</v>
+        <v>0.01250271440505646</v>
       </c>
       <c r="D297">
-        <v>0.06365107623852585</v>
+        <v>0.008313717948133275</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.01250271440505646</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C298">
-        <v>184.813103263777</v>
+        <v>0.01262378968856925</v>
       </c>
       <c r="D298">
-        <v>0.06882423160881437</v>
+        <v>0.00839422732593755</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.01262378968856925</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C299">
-        <v>185.3355751738894</v>
+        <v>-0.01010817127599406</v>
       </c>
       <c r="D299">
-        <v>0.07978443267244981</v>
+        <v>-0.006721459215772397</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-0.01010817127599406</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C300">
-        <v>185.8580470840017</v>
+        <v>0.006060395368248983</v>
       </c>
       <c r="D300">
-        <v>0.0841067796000467</v>
+        <v>0.004029878321896117</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.006060395368248983</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C301">
-        <v>186.3805189941141</v>
+        <v>-0.00199646072134918</v>
       </c>
       <c r="D301">
-        <v>0.08842456128696342</v>
+        <v>-0.001327552625301196</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-0.00199646072134918</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C302">
-        <v>186.9029909042264</v>
+        <v>-0.00809366034280945</v>
       </c>
       <c r="D302">
-        <v>0.0945381814085164</v>
+        <v>-0.005381904047244018</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.00809366034280945</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C303">
-        <v>187.4254628143388</v>
+        <v>0.01643049123249885</v>
       </c>
       <c r="D303">
-        <v>0.08927004347839712</v>
+        <v>0.01092550508880117</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.01643049123249885</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C304">
-        <v>187.9479347244512</v>
+        <v>0.006366619691519304</v>
       </c>
       <c r="D304">
-        <v>0.0893730710757133</v>
+        <v>0.004233503116484548</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.006366619691519304</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C305">
-        <v>188.4704066345635</v>
+        <v>-0.01087342507303646</v>
       </c>
       <c r="D305">
-        <v>0.08435092078479167</v>
+        <v>-0.007230317054257095</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.01087342507303646</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C306">
-        <v>188.9928785446759</v>
+        <v>-0.00138114053922056</v>
       </c>
       <c r="D306">
-        <v>0.08300433306976469</v>
+        <v>-0.0009183935998065044</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.00138114053922056</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C307">
-        <v>189.5153504547882</v>
+        <v>-0.05790862323875245</v>
       </c>
       <c r="D307">
-        <v>0.08622806545992127</v>
+        <v>-0.03850651504740421</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.05790862323875245</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C308">
-        <v>190.0378223649006</v>
+        <v>0.006934460252296049</v>
       </c>
       <c r="D308">
-        <v>0.09807260595797211</v>
+        <v>0.004611090423437543</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.006934460252296049</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C309">
-        <v>190.560294275013</v>
+        <v>0.001831712017580145</v>
       </c>
       <c r="D309">
-        <v>0.1060739040722902</v>
+        <v>0.001218002473943473</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.001831712017580145</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C310">
-        <v>191.0827661851253</v>
+        <v>0.02406172950165875</v>
       </c>
       <c r="D310">
-        <v>0.1050305036495486</v>
+        <v>0.01599992017254791</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.02406172950165875</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C311">
-        <v>191.6052380952377</v>
+        <v>-0.0007819112542488682</v>
       </c>
       <c r="D311">
-        <v>0.1133133827445827</v>
+        <v>-0.0005199342652877994</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.0007819112542488682</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C312">
-        <v>192.12771000535</v>
+        <v>-0.00302168350746701</v>
       </c>
       <c r="D312">
-        <v>0.1132539434185808</v>
+        <v>-0.00200927763329913</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.00302168350746701</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C313">
-        <v>192.6501819154624</v>
+        <v>0.008670326441619913</v>
       </c>
       <c r="D313">
-        <v>0.1129170113121984</v>
+        <v>0.005765359922539515</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.008670326441619913</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C314">
-        <v>193.1726538255747</v>
+        <v>-0.003604934352822831</v>
       </c>
       <c r="D314">
-        <v>0.1180892094717729</v>
+        <v>-0.002397112055825612</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-0.003604934352822831</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C315">
-        <v>193.6951257356871</v>
+        <v>0.004348279525616228</v>
       </c>
       <c r="D315">
-        <v>0.115592476827193</v>
+        <v>0.002891401688020309</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.004348279525616228</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C316">
-        <v>194.2175976457995</v>
+        <v>-0.02692173982330637</v>
       </c>
       <c r="D316">
-        <v>0.1087644642133163</v>
+        <v>-0.01790169272949859</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.02692173982330637</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C317">
-        <v>194.7400695559118</v>
+        <v>0.01022202995399368</v>
       </c>
       <c r="D317">
-        <v>0.1131746819886377</v>
+        <v>0.006797169889804379</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.01022202995399368</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C318">
-        <v>195.2625414660242</v>
+        <v>-0.0122860685596704</v>
       </c>
       <c r="D318">
-        <v>0.112302127009651</v>
+        <v>-0.008169658634705614</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.0122860685596704</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C319">
-        <v>195.7850133761365</v>
+        <v>0.008466131524852649</v>
       </c>
       <c r="D319">
-        <v>0.118875019939396</v>
+        <v>0.005629579891943998</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.008466131524852649</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C320">
-        <v>196.3074852862489</v>
+        <v>0.01793692574487515</v>
       </c>
       <c r="D320">
-        <v>0.1141647116514955</v>
+        <v>0.01192721329691358</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.01793692574487515</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C321">
-        <v>196.8299571963612</v>
+        <v>0.007073740293061626</v>
       </c>
       <c r="D321">
-        <v>0.1107870720442043</v>
+        <v>0.004703705109914042</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.007073740293061626</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C322">
-        <v>197.3524291064736</v>
+        <v>0.007066269044805118</v>
       </c>
       <c r="D322">
-        <v>0.1171252123955182</v>
+        <v>0.00469873708067553</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.007066269044805118</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C323">
-        <v>197.874901016586</v>
+        <v>0.01000524985955842</v>
       </c>
       <c r="D323">
-        <v>0.1143625252399614</v>
+        <v>0.00665302130706337</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.01000524985955842</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C324">
-        <v>198.3973729266983</v>
+        <v>-0.008621575308488616</v>
       </c>
       <c r="D324">
-        <v>0.1173565136167026</v>
+        <v>-0.005732942708375079</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.008621575308488616</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C325">
-        <v>198.9198448368107</v>
+        <v>0.0001686098961144467</v>
       </c>
       <c r="D325">
-        <v>0.1138381791611714</v>
+        <v>0.0001121176629446677</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.0001686098961144467</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C326">
-        <v>199.442316746923</v>
+        <v>-0.008219004042429923</v>
       </c>
       <c r="D326">
-        <v>0.1159969798279886</v>
+        <v>-0.005465251721313794</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.008219004042429923</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C327">
-        <v>199.9647886570354</v>
+        <v>-0.002203759193208477</v>
       </c>
       <c r="D327">
-        <v>0.1139124064146466</v>
+        <v>-0.001465396374289034</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>-0.002203759193208477</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C328">
-        <v>200.4872605671478</v>
+        <v>0.005275801800337376</v>
       </c>
       <c r="D328">
-        <v>0.1099409819047352</v>
+        <v>0.003508160443984853</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.005275801800337376</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C329">
-        <v>201.0097324772601</v>
+        <v>0.01938419214777021</v>
       </c>
       <c r="D329">
-        <v>0.1203505926462443</v>
+        <v>0.01288957749077317</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.01938419214777021</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C330">
-        <v>201.5322043873725</v>
+        <v>0.0130945307760193</v>
       </c>
       <c r="D330">
-        <v>0.1193411172082288</v>
+        <v>0.008707248042948763</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.0130945307760193</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C331">
-        <v>202.0546762974848</v>
+        <v>-0.001707577789515469</v>
       </c>
       <c r="D331">
-        <v>0.118020402950745</v>
+        <v>-0.001135459041661153</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.001707577789515469</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C332">
-        <v>202.5771482075972</v>
+        <v>0.01355535235337424</v>
       </c>
       <c r="D332">
-        <v>0.1215783348591224</v>
+        <v>0.009013672751569913</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.01355535235337424</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C333">
-        <v>203.0996201177095</v>
+        <v>-9.727547611859677e-05</v>
       </c>
       <c r="D333">
-        <v>0.1213681795476455</v>
+        <v>-6.468362353324792e-05</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-9.727547611859677e-05</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C334">
-        <v>203.6220920278219</v>
+        <v>-0.000551406505971741</v>
       </c>
       <c r="D334">
-        <v>0.1192086836183053</v>
+        <v>-0.0003666594322558246</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.000551406505971741</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C335">
-        <v>204.1445639379343</v>
+        <v>0.008464565000899427</v>
       </c>
       <c r="D335">
-        <v>0.1174450738812297</v>
+        <v>0.005628538227079541</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.008464565000899427</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C336">
-        <v>204.6670358480466</v>
+        <v>-0.004086029790021151</v>
       </c>
       <c r="D336">
-        <v>0.1179810814597633</v>
+        <v>-0.00271701792917605</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.004086029790021151</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C337">
-        <v>205.189507758159</v>
+        <v>-0.01117438945956284</v>
       </c>
       <c r="D337">
-        <v>0.1146887777215028</v>
+        <v>-0.007430444237919017</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.01117438945956284</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C338">
-        <v>205.7119796682713</v>
+        <v>0.007217545398608749</v>
       </c>
       <c r="D338">
-        <v>0.1189535454335523</v>
+        <v>0.004799328751971866</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.007217545398608749</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C339">
-        <v>206.2344515783837</v>
+        <v>-0.001427980543015295</v>
       </c>
       <c r="D339">
-        <v>0.118207145484896</v>
+        <v>-0.0009495400027093354</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.001427980543015295</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C340">
-        <v>206.7569234884961</v>
+        <v>0.01075687313812335</v>
       </c>
       <c r="D340">
-        <v>0.1229694005960975</v>
+        <v>0.007152815490853798</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.01075687313812335</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C341">
-        <v>207.2793953986084</v>
+        <v>-0.007708658765016807</v>
       </c>
       <c r="D341">
-        <v>0.1242016286403202</v>
+        <v>-0.005125896077801811</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.007708658765016807</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C342">
-        <v>207.8018673087208</v>
+        <v>-0.005527678778626033</v>
       </c>
       <c r="D342">
-        <v>0.1261593095039115</v>
+        <v>-0.003675646806328145</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>-0.005527678778626033</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C343">
-        <v>208.3243392188331</v>
+        <v>0.01037268861967444</v>
       </c>
       <c r="D343">
-        <v>0.1201547084283412</v>
+        <v>0.006897350827505825</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.01037268861967444</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C344">
-        <v>208.8468111289455</v>
+        <v>-0.004521277855928929</v>
       </c>
       <c r="D344">
-        <v>0.1327823300346163</v>
+        <v>-0.003006437453624626</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>-0.004521277855928929</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C345">
-        <v>209.3692830390578</v>
+        <v>0.004899814052937934</v>
       </c>
       <c r="D345">
-        <v>0.1157898288165366</v>
+        <v>0.003258146248461939</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.004899814052937934</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C346">
-        <v>209.8917549491702</v>
+        <v>-0.005757933044119312</v>
       </c>
       <c r="D346">
-        <v>0.1113190110011544</v>
+        <v>-0.003828755080071608</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.005757933044119312</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C347">
-        <v>210.4142268592826</v>
+        <v>0.003532986943748817</v>
       </c>
       <c r="D347">
-        <v>0.100990630216433</v>
+        <v>0.002349270407463365</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.003532986943748817</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C348">
-        <v>210.9366987693949</v>
+        <v>-0.003411510273193308</v>
       </c>
       <c r="D348">
-        <v>0.1117313178591181</v>
+        <v>-0.00226849412612494</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.003411510273193308</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C349">
-        <v>211.4591706795073</v>
+        <v>-0.006499437932029117</v>
       </c>
       <c r="D349">
-        <v>0.1021821968289842</v>
+        <v>-0.004321821009239048</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.006499437932029117</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C350">
-        <v>211.9816425896196</v>
+        <v>0.01703585671644348</v>
       </c>
       <c r="D350">
-        <v>0.1045332586644995</v>
+        <v>0.01132804470747913</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.01703585671644348</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C351">
-        <v>212.504114499732</v>
+        <v>-0.001652057828851028</v>
       </c>
       <c r="D351">
-        <v>0.1127236869733546</v>
+        <v>-0.001098540875053353</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.001652057828851028</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C352">
-        <v>213.0265864098444</v>
+        <v>-0.002161415965741931</v>
       </c>
       <c r="D352">
-        <v>0.1137144470310206</v>
+        <v>-0.00143724011647448</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.002161415965741931</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C353">
-        <v>213.5490583199567</v>
+        <v>0.005822736286985375</v>
       </c>
       <c r="D353">
-        <v>0.1123418156421131</v>
+        <v>0.003871846193397762</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.005822736286985375</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C354">
-        <v>214.0715302300691</v>
+        <v>-0.0003439298417031722</v>
       </c>
       <c r="D354">
-        <v>0.1104537528527605</v>
+        <v>-0.0002286971936837893</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.0003439298417031722</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C355">
-        <v>214.5940021401814</v>
+        <v>-0.003534124776182423</v>
       </c>
       <c r="D355">
-        <v>0.1096719784999526</v>
+        <v>-0.002350027012598759</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.003534124776182423</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C356">
-        <v>215.1164740502938</v>
+        <v>-0.002886236914195095</v>
       </c>
       <c r="D356">
-        <v>0.09829600283507783</v>
+        <v>-0.001919212009386069</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.002886236914195095</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C357">
-        <v>215.6389459604061</v>
+        <v>0.0008772036278372752</v>
       </c>
       <c r="D357">
-        <v>0.09714260079651874</v>
+        <v>0.0005832992187655624</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.0008772036278372752</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C358">
-        <v>216.1614178705185</v>
+        <v>-0.005388022294471106</v>
       </c>
       <c r="D358">
-        <v>0.09053093612112351</v>
+        <v>-0.003582781802675624</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>-0.005388022294471106</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C359">
-        <v>216.6838897806309</v>
+        <v>0.006979508982182914</v>
       </c>
       <c r="D359">
-        <v>0.08731954795549318</v>
+        <v>0.004641045713310402</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.006979508982182914</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C360">
-        <v>217.2063616907432</v>
+        <v>-0.001221521428055539</v>
       </c>
       <c r="D360">
-        <v>0.09732566450358246</v>
+        <v>-0.0008122543866432388</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.001221521428055539</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C361">
-        <v>217.7288336008556</v>
+        <v>0.007793672379897032</v>
       </c>
       <c r="D361">
-        <v>0.1023133291318364</v>
+        <v>0.005182426139432234</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.007793672379897032</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C362">
-        <v>218.2513055109679</v>
+        <v>0.002016603783237869</v>
       </c>
       <c r="D362">
-        <v>0.1018391023140135</v>
+        <v>0.001340946815532929</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.002016603783237869</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C363">
-        <v>218.7737774210803</v>
+        <v>0.003203844170241332</v>
       </c>
       <c r="D363">
-        <v>0.1119994163895297</v>
+        <v>0.002130405919724537</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.003203844170241332</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C364">
-        <v>219.2962493311927</v>
+        <v>-0.009826834653376082</v>
       </c>
       <c r="D364">
-        <v>0.1091236420054392</v>
+        <v>-0.006534383573383866</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.009826834653376082</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C365">
-        <v>219.818721241305</v>
+        <v>0.02066574415661382</v>
       </c>
       <c r="D365">
-        <v>0.1035476188691707</v>
+        <v>0.01374174939458635</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.02066574415661382</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C366">
-        <v>220.3411931514174</v>
+        <v>-0.02780909134775467</v>
       </c>
       <c r="D366">
-        <v>0.1161942012366541</v>
+        <v>-0.01849173982296221</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.02780909134775467</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C367">
-        <v>220.8636650615297</v>
+        <v>-0.007316720442241298</v>
       </c>
       <c r="D367">
-        <v>0.1081403897653349</v>
+        <v>-0.004865275498697631</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.007316720442241298</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C368">
-        <v>221.3861369716421</v>
+        <v>-0.01690291976622671</v>
       </c>
       <c r="D368">
-        <v>0.1195862888297398</v>
+        <v>-0.01123964787834415</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.01690291976622671</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C369">
-        <v>221.9086088817544</v>
+        <v>0.01757768088168987</v>
       </c>
       <c r="D369">
-        <v>0.1224621505086516</v>
+        <v>0.01168833233314221</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.01757768088168987</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C370">
-        <v>222.4310807918668</v>
+        <v>-0.01562762159670861</v>
       </c>
       <c r="D370">
-        <v>0.127830271125685</v>
+        <v>-0.01039163448400026</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01562762159670861</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C371">
-        <v>222.9535527019792</v>
+        <v>0.003847632111892985</v>
       </c>
       <c r="D371">
-        <v>0.1319325446206703</v>
+        <v>0.002558494668447495</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.003847632111892985</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C372">
-        <v>223.4760246120915</v>
+        <v>0.01340405194591643</v>
       </c>
       <c r="D372">
-        <v>0.1275254798293334</v>
+        <v>0.008913065085723114</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.01340405194591643</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C373">
-        <v>223.9984965222039</v>
+        <v>0.001621429158293886</v>
       </c>
       <c r="D373">
-        <v>0.1232715994639135</v>
+        <v>0.001078174247464436</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.001621429158293886</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C374">
-        <v>224.5209684323162</v>
+        <v>-0.002246380988356833</v>
       </c>
       <c r="D374">
-        <v>0.1188406618621796</v>
+        <v>-0.001493737866530371</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.002246380988356833</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C375">
-        <v>225.0434403424286</v>
+        <v>-0.003089910655621253</v>
       </c>
       <c r="D375">
-        <v>0.1250525087572568</v>
+        <v>-0.002054645482854302</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.003089910655621253</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C376">
-        <v>225.565912252541</v>
+        <v>-0.001279413437230481</v>
       </c>
       <c r="D376">
-        <v>0.1149358227738262</v>
+        <v>-0.0008507498541184108</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.001279413437230481</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C377">
-        <v>226.0883841626533</v>
+        <v>-0.01861736199834674</v>
       </c>
       <c r="D377">
-        <v>0.1157306299121524</v>
+        <v>-0.01237967145198105</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.01861736199834674</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C378">
-        <v>226.6108560727657</v>
+        <v>-0.001887601021140384</v>
       </c>
       <c r="D378">
-        <v>0.112862490127191</v>
+        <v>-0.001255166036746613</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-0.001887601021140384</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C379">
-        <v>227.133327982878</v>
+        <v>-0.01082032506922292</v>
       </c>
       <c r="D379">
-        <v>0.1218763382203065</v>
+        <v>-0.007195008045313247</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.01082032506922292</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C380">
-        <v>227.6557998929904</v>
+        <v>-0.005255599849896875</v>
       </c>
       <c r="D380">
-        <v>0.124260012558712</v>
+        <v>-0.003494727095631589</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>-0.005255599849896875</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C381">
-        <v>228.1782718031027</v>
+        <v>0.01637551797413028</v>
       </c>
       <c r="D381">
-        <v>0.1174401542032491</v>
+        <v>0.01088895045354683</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01637551797413028</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C382">
-        <v>228.7007437132151</v>
+        <v>0.0081625665038354</v>
       </c>
       <c r="D382">
-        <v>0.1132192678080714</v>
+        <v>0.005427723408472226</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.0081625665038354</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C383">
-        <v>229.2232156233275</v>
+        <v>-0.0007760962748886158</v>
       </c>
       <c r="D383">
-        <v>0.09318828811160147</v>
+        <v>-0.0005160675770864115</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.0007760962748886158</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C384">
-        <v>229.7456875334398</v>
+        <v>0.01662787005995803</v>
       </c>
       <c r="D384">
-        <v>0.08880620419760574</v>
+        <v>0.01105675274009242</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.01662787005995803</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C385">
-        <v>230.2681594435522</v>
+        <v>-0.004706350849492225</v>
       </c>
       <c r="D385">
-        <v>0.08836781022864226</v>
+        <v>-0.00312950230326077</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-0.004706350849492225</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C386">
-        <v>230.7906313536645</v>
+        <v>-0.009125445086842099</v>
       </c>
       <c r="D386">
-        <v>0.09940669671689252</v>
+        <v>-0.006067992449103789</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.009125445086842099</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C387">
-        <v>231.3131032637769</v>
+        <v>0.02069677440541007</v>
       </c>
       <c r="D387">
-        <v>0.1081553750195673</v>
+        <v>0.01376238305284604</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.02069677440541007</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C388">
-        <v>231.8355751738893</v>
+        <v>-0.0131804715520758</v>
       </c>
       <c r="D388">
-        <v>0.1347462319954808</v>
+        <v>-0.008764394623221644</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.0131804715520758</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C389">
-        <v>232.3580470840016</v>
+        <v>0.01873179519331458</v>
       </c>
       <c r="D389">
-        <v>0.1358738174000773</v>
+        <v>0.01245576415281741</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01873179519331458</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C390">
-        <v>232.880518994114</v>
+        <v>0.004706493711901238</v>
       </c>
       <c r="D390">
-        <v>0.1368134737369916</v>
+        <v>0.003129597300053902</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.004706493711901238</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C391">
-        <v>233.4029909042263</v>
+        <v>0.008785202054069075</v>
       </c>
       <c r="D391">
-        <v>0.1412489332364246</v>
+        <v>0.005841746810224892</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.008785202054069075</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C392">
-        <v>233.9254628143387</v>
+        <v>0.006713578942347809</v>
       </c>
       <c r="D392">
-        <v>0.1434074992470224</v>
+        <v>0.004464214724974719</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.006713578942347809</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C393">
-        <v>234.447934724451</v>
+        <v>-0.007212385380167774</v>
       </c>
       <c r="D393">
-        <v>0.1423976539198971</v>
+        <v>-0.004795897582024636</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.007212385380167774</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C394">
-        <v>234.9704066345634</v>
+        <v>-0.006961691286419658</v>
       </c>
       <c r="D394">
-        <v>0.1399321049971246</v>
+        <v>-0.00462919778235219</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.006961691286419658</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C395">
-        <v>235.4928785446758</v>
+        <v>-0.007251454446960182</v>
       </c>
       <c r="D395">
-        <v>0.1478470133213874</v>
+        <v>-0.004821876676746458</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.007251454446960182</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C396">
-        <v>236.0153504547881</v>
+        <v>0.01016600296368786</v>
       </c>
       <c r="D396">
-        <v>0.1466616032359229</v>
+        <v>0.006759914572295324</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.01016600296368786</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C397">
-        <v>236.5378223649005</v>
+        <v>-0.01655647047124731</v>
       </c>
       <c r="D397">
-        <v>0.1421567433839513</v>
+        <v>-0.01100927536654595</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01655647047124731</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C398">
-        <v>237.0602942750128</v>
+        <v>0.001300742252708709</v>
       </c>
       <c r="D398">
-        <v>0.1312932267437598</v>
+        <v>0.0008649325148038416</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.001300742252708709</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C399">
-        <v>237.5827661851252</v>
+        <v>-0.004693856440231237</v>
       </c>
       <c r="D399">
-        <v>0.1304413664371209</v>
+        <v>-0.00312119410784343</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.004693856440231237</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C400">
-        <v>238.1052380952376</v>
+        <v>0.0147516202470257</v>
       </c>
       <c r="D400">
-        <v>0.1292409726388678</v>
+        <v>0.00980913472374801</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.0147516202470257</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C401">
-        <v>238.6277100053499</v>
+        <v>0.003901004129367891</v>
       </c>
       <c r="D401">
-        <v>0.1273899682152739</v>
+        <v>0.002593984553702313</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.003901004129367891</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C402">
-        <v>239.1501819154623</v>
+        <v>-0.01116104460148737</v>
       </c>
       <c r="D402">
-        <v>0.1291251473332346</v>
+        <v>-0.007421570533977379</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.01116104460148737</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C403">
-        <v>239.6726538255746</v>
+        <v>-0.006907694978247392</v>
       </c>
       <c r="D403">
-        <v>0.1265374920917757</v>
+        <v>-0.004593292773100507</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.006907694978247392</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C404">
-        <v>240.195125735687</v>
+        <v>-0.03278171571183819</v>
       </c>
       <c r="D404">
-        <v>0.1323359799616268</v>
+        <v>-0.02179830150914185</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.03278171571183819</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C405">
-        <v>240.7175976457993</v>
+        <v>-0.007171502905539029</v>
       </c>
       <c r="D405">
-        <v>0.1340763407656447</v>
+        <v>-0.004768712656249827</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>-0.007171502905539029</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C406">
-        <v>241.2400695559117</v>
+        <v>-0.0007174539976633199</v>
       </c>
       <c r="D406">
-        <v>0.1389877375257454</v>
+        <v>-0.0004770732165905677</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.0007174539976633199</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C407">
-        <v>241.7625414660241</v>
+        <v>0.01806569843894579</v>
       </c>
       <c r="D407">
-        <v>0.1438741066551651</v>
+        <v>0.01201284109126611</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.01806569843894579</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C408">
-        <v>242.2850133761364</v>
+        <v>0.01431765641613403</v>
       </c>
       <c r="D408">
-        <v>0.1428508750697345</v>
+        <v>0.009520569155277084</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.01431765641613403</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C409">
-        <v>242.8074852862488</v>
+        <v>0.04351728807713595</v>
       </c>
       <c r="D409">
-        <v>0.1494737898838285</v>
+        <v>0.02893695298635733</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.04351728807713595</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C410">
-        <v>243.3299571963611</v>
+        <v>0.001845350788349798</v>
       </c>
       <c r="D410">
-        <v>0.1456759163906955</v>
+        <v>0.001227071616024514</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.001845350788349798</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C411">
-        <v>243.8524291064735</v>
+        <v>0.001537795323559799</v>
       </c>
       <c r="D411">
-        <v>0.1501176935829674</v>
+        <v>0.001022561674836304</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.001537795323559799</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C412">
-        <v>244.3749010165859</v>
+        <v>0.007258854762226541</v>
       </c>
       <c r="D412">
-        <v>0.1483523386499878</v>
+        <v>0.004826797538877556</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.007258854762226541</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C413">
-        <v>244.8973729266982</v>
+        <v>0.003532602916926919</v>
       </c>
       <c r="D413">
-        <v>0.1471491648305142</v>
+        <v>0.002349015047660817</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.003532602916926919</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C414">
-        <v>245.4198448368106</v>
+        <v>-0.001652663171166857</v>
       </c>
       <c r="D414">
-        <v>0.1446039387137778</v>
+        <v>-0.001098943399266322</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-0.001652663171166857</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C415">
-        <v>245.9423167469229</v>
+        <v>-0.004034996045360728</v>
       </c>
       <c r="D415">
-        <v>0.1397850884148238</v>
+        <v>-0.00268308288553687</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.004034996045360728</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C416">
-        <v>246.4647886570353</v>
+        <v>0.01295314949657556</v>
       </c>
       <c r="D416">
-        <v>0.1462722122526174</v>
+        <v>0.008613236131426085</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01295314949657556</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C417">
-        <v>246.9872605671476</v>
+        <v>-0.001939983815693935</v>
       </c>
       <c r="D417">
-        <v>0.144227360052246</v>
+        <v>-0.001289998135212936</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>-0.001939983815693935</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C418">
-        <v>247.50973247726</v>
+        <v>-0.007372431964225434</v>
       </c>
       <c r="D418">
-        <v>0.1510589974462189</v>
+        <v>-0.004902321044587251</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.007372431964225434</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C419">
-        <v>248.0322043873724</v>
+        <v>-0.01777869677499311</v>
       </c>
       <c r="D419">
-        <v>0.1512312574717523</v>
+        <v>-0.01182199846242204</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.01777869677499311</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C420">
-        <v>248.5546762974847</v>
+        <v>-0.001394112660568325</v>
       </c>
       <c r="D420">
-        <v>0.1453093987811631</v>
+        <v>-0.0009270194513280477</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>-0.001394112660568325</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C421">
-        <v>249.0771482075971</v>
+        <v>-0.001964505422743734</v>
       </c>
       <c r="D421">
-        <v>0.143313191846427</v>
+        <v>-0.001306303852359009</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.001964505422743734</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C422">
-        <v>249.5996201177094</v>
+        <v>-0.003029262757742401</v>
       </c>
       <c r="D422">
-        <v>0.1437987194923413</v>
+        <v>-0.002014317478808393</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>-0.003029262757742401</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C423">
-        <v>250.1220920278218</v>
+        <v>0.002839708761929849</v>
       </c>
       <c r="D423">
-        <v>0.1452576927076358</v>
+        <v>0.001888272973105707</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.002839708761929849</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C424">
-        <v>250.6445639379342</v>
+        <v>-0.004234829238067839</v>
       </c>
       <c r="D424">
-        <v>0.1468960564066178</v>
+        <v>-0.002815962574460259</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.004234829238067839</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C425">
-        <v>251.1670358480465</v>
+        <v>0.00948951992305691</v>
       </c>
       <c r="D425">
-        <v>0.1495624835814025</v>
+        <v>0.006310085118122817</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.00948951992305691</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C426">
-        <v>251.6895077581589</v>
+        <v>0.002848188854357225</v>
       </c>
       <c r="D426">
-        <v>0.1495671513141457</v>
+        <v>0.001893911836342221</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.002848188854357225</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C427">
-        <v>252.2119796682712</v>
+        <v>0.008037750263709675</v>
       </c>
       <c r="D427">
-        <v>0.156496609286136</v>
+        <v>0.0053447264701968</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.008037750263709675</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C428">
-        <v>252.7344515783836</v>
+        <v>0.007996791274865522</v>
       </c>
       <c r="D428">
-        <v>0.1532018051991343</v>
+        <v>0.005317490666061874</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.007996791274865522</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C429">
-        <v>253.2569234884959</v>
+        <v>-0.001674570462815161</v>
       </c>
       <c r="D429">
-        <v>0.1572622327310059</v>
+        <v>-0.001113510719439439</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.001674570462815161</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C430">
-        <v>253.7793953986083</v>
+        <v>0.01083873649263456</v>
       </c>
       <c r="D430">
-        <v>0.1658123082376043</v>
+        <v>0.007207250777276002</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.01083873649263456</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C431">
-        <v>254.3018673087207</v>
+        <v>-0.006215412877851101</v>
       </c>
       <c r="D431">
-        <v>0.1738228509157253</v>
+        <v>-0.004132957686112645</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.006215412877851101</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C432">
-        <v>254.824339218833</v>
+        <v>0.007269193987453626</v>
       </c>
       <c r="D432">
-        <v>0.1767095277818038</v>
+        <v>0.004833672638120442</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.007269193987453626</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C433">
-        <v>255.3468111289454</v>
+        <v>-0.002889093015935984</v>
       </c>
       <c r="D433">
-        <v>0.1797914623552106</v>
+        <v>-0.001921111182920364</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.002889093015935984</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C434">
-        <v>255.8692830390577</v>
+        <v>-0.001969055068677505</v>
       </c>
       <c r="D434">
-        <v>0.1732079519344132</v>
+        <v>-0.001309329153252225</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.001969055068677505</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C435">
-        <v>256.3917549491701</v>
+        <v>-0.004165391820346365</v>
       </c>
       <c r="D435">
-        <v>0.1747462803725588</v>
+        <v>-0.002769789952477502</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>-0.004165391820346365</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C436">
-        <v>256.9142268592825</v>
+        <v>-0.007886293279307566</v>
       </c>
       <c r="D436">
-        <v>0.1723946171948326</v>
+        <v>-0.005244014688034942</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.007886293279307566</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C437">
-        <v>257.4366987693948</v>
+        <v>0.01061650766265387</v>
       </c>
       <c r="D437">
-        <v>0.1743474941917159</v>
+        <v>0.007059479041271548</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01061650766265387</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C438">
-        <v>257.9591706795072</v>
+        <v>-0.003346504490597368</v>
       </c>
       <c r="D438">
-        <v>0.179026882810202</v>
+        <v>-0.002225268333389745</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.003346504490597368</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C439">
-        <v>258.4816425896195</v>
+        <v>0.01118032159630467</v>
       </c>
       <c r="D439">
-        <v>0.1825351697387576</v>
+        <v>0.007434388830277406</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.01118032159630467</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C440">
-        <v>259.0041144997319</v>
+        <v>0.0002819122814319286</v>
       </c>
       <c r="D440">
-        <v>0.1794626325937098</v>
+        <v>0.0001874584284666974</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.0002819122814319286</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C441">
-        <v>259.5265864098442</v>
+        <v>-0.009691422537599692</v>
       </c>
       <c r="D441">
-        <v>0.1777623397766723</v>
+        <v>-0.006444340875386255</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.009691422537599692</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C442">
-        <v>260.0490583199566</v>
+        <v>-0.003266894042534219</v>
       </c>
       <c r="D442">
-        <v>0.1817430205563804</v>
+        <v>-0.002172331123958338</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.003266894042534219</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C443">
-        <v>260.571530230069</v>
+        <v>0.000794590654066063</v>
       </c>
       <c r="D443">
-        <v>0.179320381114987</v>
+        <v>0.0005283654707378046</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.000794590654066063</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C444">
-        <v>261.0940021401813</v>
+        <v>0.00238768377282117</v>
       </c>
       <c r="D444">
-        <v>0.1603656168365384</v>
+        <v>0.001587697582577892</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.00238768377282117</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C445">
-        <v>261.6164740502937</v>
+        <v>0.002681265411201394</v>
       </c>
       <c r="D445">
-        <v>0.169329284561556</v>
+        <v>0.001782915585418694</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.002681265411201394</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C446">
-        <v>262.138945960406</v>
+        <v>0.004363743508037921</v>
       </c>
       <c r="D446">
-        <v>0.1642512938602677</v>
+        <v>0.002901684510137468</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.004363743508037921</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C447">
-        <v>262.6614178705184</v>
+        <v>7.638981723623317e-06</v>
       </c>
       <c r="D447">
-        <v>0.1661849054440074</v>
+        <v>5.079564117329963e-06</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7.638981723623317e-06</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C448">
-        <v>263.1838897806308</v>
+        <v>0.01134040994085517</v>
       </c>
       <c r="D448">
-        <v>0.1678859667078913</v>
+        <v>0.007540840061606676</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.01134040994085517</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C449">
-        <v>263.7063616907431</v>
+        <v>-0.005392114242186885</v>
       </c>
       <c r="D449">
-        <v>0.1635856268463311</v>
+        <v>-0.003585502755747521</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.005392114242186885</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C450">
-        <v>264.2288336008555</v>
+        <v>0.006645095898219822</v>
       </c>
       <c r="D450">
-        <v>0.1657713995820619</v>
+        <v>0.00441867671661396</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.006645095898219822</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C451">
-        <v>264.7513055109678</v>
+        <v>0.01399263285267338</v>
       </c>
       <c r="D451">
-        <v>0.1673104041139468</v>
+        <v>0.009304443748780061</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.01399263285267338</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C452">
-        <v>265.2737774210802</v>
+        <v>0.01310965997424418</v>
       </c>
       <c r="D452">
-        <v>0.1681939192457113</v>
+        <v>0.008717308249296613</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.01310965997424418</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C453">
-        <v>265.7962493311925</v>
+        <v>0.00472419331503815</v>
       </c>
       <c r="D453">
-        <v>0.1689586003719255</v>
+        <v>0.003141366704961261</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.00472419331503815</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C454">
-        <v>266.3187212413049</v>
+        <v>0.005043742470854262</v>
       </c>
       <c r="D454">
-        <v>0.1699796984685321</v>
+        <v>0.003353851887454498</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.005043742470854262</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C455">
-        <v>266.8411931514173</v>
+        <v>-0.01077424920152747</v>
       </c>
       <c r="D455">
-        <v>0.1709675444150496</v>
+        <v>-0.00716436975703238</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.01077424920152747</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C456">
-        <v>267.3636650615296</v>
+        <v>0.002517552625726616</v>
       </c>
       <c r="D456">
-        <v>0.1755475462266951</v>
+        <v>0.001674054271079617</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.002517552625726616</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C457">
-        <v>267.886136971642</v>
+        <v>-0.003848616238965263</v>
       </c>
       <c r="D457">
-        <v>0.169275052138983</v>
+        <v>-0.002559149066735657</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.003848616238965263</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C458">
-        <v>268.4086088817543</v>
+        <v>0.003195982398369601</v>
       </c>
       <c r="D458">
-        <v>0.1714406033801815</v>
+        <v>0.002125178210621008</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.003195982398369601</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C459">
-        <v>268.9310807918667</v>
+        <v>0.007658057155509823</v>
       </c>
       <c r="D459">
-        <v>0.1674554788593701</v>
+        <v>0.005092248383746471</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.007658057155509823</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C460">
-        <v>269.453552701979</v>
+        <v>0.005741489755877183</v>
       </c>
       <c r="D460">
-        <v>0.1604114746212826</v>
+        <v>0.003817821065572354</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.005741489755877183</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C461">
-        <v>269.9760246120914</v>
+        <v>-0.005028363102018929</v>
       </c>
       <c r="D461">
-        <v>0.1585790728917124</v>
+        <v>-0.003343625329398788</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.005028363102018929</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C462">
-        <v>270.4984965222038</v>
+        <v>-0.002782615558480472</v>
       </c>
       <c r="D462">
-        <v>0.1576354721080438</v>
+        <v>-0.001850308673925879</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.002782615558480472</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C463">
-        <v>271.0209684323161</v>
+        <v>0.006514586287707402</v>
       </c>
       <c r="D463">
-        <v>0.1616391829500973</v>
+        <v>0.004331893954393768</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.006514586287707402</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C464">
-        <v>271.5434403424285</v>
+        <v>-0.003964772499571723</v>
       </c>
       <c r="D464">
-        <v>0.1555451624192476</v>
+        <v>-0.002636387525306014</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.003964772499571723</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C465">
-        <v>272.0659122525408</v>
+        <v>-0.03102043451576719</v>
       </c>
       <c r="D465">
-        <v>0.1505885267734098</v>
+        <v>-0.02062713222404939</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.03102043451576719</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C466">
-        <v>272.5883841626532</v>
+        <v>0.01466949752580948</v>
       </c>
       <c r="D466">
-        <v>0.1580176909215403</v>
+        <v>0.009754526970646918</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01466949752580948</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C467">
-        <v>273.1108560727656</v>
+        <v>-0.00831038971031095</v>
       </c>
       <c r="D467">
-        <v>0.1565058393766803</v>
+        <v>-0.005526018898956226</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.00831038971031095</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C468">
-        <v>273.6333279828779</v>
+        <v>0.003164453571207204</v>
       </c>
       <c r="D468">
-        <v>0.1483383074767657</v>
+        <v>0.002104213021161221</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.003164453571207204</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C469">
-        <v>274.1557998929903</v>
+        <v>0.002783873160776551</v>
       </c>
       <c r="D469">
-        <v>0.1401501934696673</v>
+        <v>0.001851144920395389</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.002783873160776551</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C470">
-        <v>274.6782718031026</v>
+        <v>-0.007037724611682172</v>
       </c>
       <c r="D470">
-        <v>0.1523846132973276</v>
+        <v>-0.004679756373103937</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.007037724611682172</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C471">
-        <v>275.200743713215</v>
+        <v>0.003577128104525151</v>
       </c>
       <c r="D471">
-        <v>0.1506444432451926</v>
+        <v>0.002378622206497439</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.003577128104525151</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C472">
-        <v>275.7232156233273</v>
+        <v>0.002518659087471953</v>
       </c>
       <c r="D472">
-        <v>0.1543977623987811</v>
+        <v>0.00167479001618049</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.002518659087471953</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C473">
-        <v>276.2456875334397</v>
+        <v>0.001445917389737872</v>
       </c>
       <c r="D473">
-        <v>0.155720783508356</v>
+        <v>0.0009614671634601316</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.001445917389737872</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C474">
-        <v>276.7681594435521</v>
+        <v>0.001251439503689333</v>
       </c>
       <c r="D474">
-        <v>0.1595258110407581</v>
+        <v>0.0008321485019778811</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.001251439503689333</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C475">
-        <v>277.2906313536644</v>
+        <v>0.001671078899987855</v>
       </c>
       <c r="D475">
-        <v>0.1603656168365384</v>
+        <v>0.00111118899412412</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.001671078899987855</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C476">
-        <v>277.8131032637768</v>
+        <v>0.001616660067382369</v>
       </c>
       <c r="D476">
-        <v>0.164342424674905</v>
+        <v>0.001075003025966221</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.001616660067382369</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C477">
-        <v>278.3355751738891</v>
+        <v>0.007495405597936156</v>
       </c>
       <c r="D477">
-        <v>0.1641100142323589</v>
+        <v>0.004984092736126051</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.007495405597936156</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C478">
-        <v>278.8580470840015</v>
+        <v>-0.01026525517490295</v>
       </c>
       <c r="D478">
-        <v>0.161616300510561</v>
+        <v>-0.006825912631839668</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.01026525517490295</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C479">
-        <v>279.3805189941139</v>
+        <v>0.003544034601607571</v>
       </c>
       <c r="D479">
-        <v>0.1604527436852224</v>
+        <v>0.0023566165811381</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.003544034601607571</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C480">
-        <v>279.9029909042262</v>
+        <v>-0.006521858695735183</v>
       </c>
       <c r="D480">
-        <v>0.1626497317492406</v>
+        <v>-0.004336729764217774</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.006521858695735183</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C481">
-        <v>280.4254628143386</v>
+        <v>-0.01152787072350048</v>
       </c>
       <c r="D481">
-        <v>0.1681531697318426</v>
+        <v>-0.007665492678851065</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.01152787072350048</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C482">
-        <v>280.9479347244509</v>
+        <v>-0.002998818504081235</v>
       </c>
       <c r="D482">
-        <v>0.1618176365754972</v>
+        <v>-0.001994073479795027</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.002998818504081235</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C483">
-        <v>281.4704066345633</v>
+        <v>-0.001544250611024367</v>
       </c>
       <c r="D483">
-        <v>0.1614606771923724</v>
+        <v>-0.001026854137858001</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.001544250611024367</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C484">
-        <v>281.9928785446756</v>
+        <v>0.006552276154507375</v>
       </c>
       <c r="D484">
-        <v>0.1633620554234107</v>
+        <v>0.004356955945888268</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.006552276154507375</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C485">
-        <v>282.515350454788</v>
+        <v>-0.009973174133845575</v>
       </c>
       <c r="D485">
-        <v>0.1753283097185303</v>
+        <v>-0.006631692455750057</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.009973174133845575</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C486">
-        <v>283.0378223649004</v>
+        <v>-0.008111785998048404</v>
       </c>
       <c r="D486">
-        <v>0.1777489679499152</v>
+        <v>-0.0053939567567917</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.008111785998048404</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C487">
-        <v>283.5602942750127</v>
+        <v>0.01215820447980942</v>
       </c>
       <c r="D487">
-        <v>0.1721877406928097</v>
+        <v>0.008084635026133711</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.01215820447980942</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C488">
-        <v>284.0827661851251</v>
+        <v>-0.002474221845017333</v>
       </c>
       <c r="D488">
-        <v>0.1730372863359587</v>
+        <v>-0.00164524133673444</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.002474221845017333</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C489">
-        <v>284.6052380952374</v>
+        <v>-0.0133665808097021</v>
       </c>
       <c r="D489">
-        <v>0.1717152600202646</v>
+        <v>-0.008888148539796413</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.0133665808097021</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C490">
-        <v>285.1277100053498</v>
+        <v>-0.0134002644735407</v>
       </c>
       <c r="D490">
-        <v>0.1757309285936901</v>
+        <v>-0.008910546594454097</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.0134002644735407</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C491">
-        <v>285.6501819154622</v>
+        <v>0.0200222494739144</v>
       </c>
       <c r="D491">
-        <v>0.1735401639975155</v>
+        <v>0.0133138556492951</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.0200222494739144</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C492">
-        <v>286.1726538255745</v>
+        <v>-0.002847876679211936</v>
       </c>
       <c r="D492">
-        <v>0.1720617815646636</v>
+        <v>-0.001893704254530442</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>-0.002847876679211936</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C493">
-        <v>286.6951257356869</v>
+        <v>0.006142497438126782</v>
       </c>
       <c r="D493">
-        <v>0.1727587295647848</v>
+        <v>0.004084472342826956</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.006142497438126782</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C494">
-        <v>287.2175976457992</v>
+        <v>0.002165191246361609</v>
       </c>
       <c r="D494">
-        <v>0.1798358852401307</v>
+        <v>0.001439750500798252</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.002165191246361609</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C495">
-        <v>287.7400695559116</v>
+        <v>0.006227120826491905</v>
       </c>
       <c r="D495">
-        <v>0.1801378752400158</v>
+        <v>0.004140742922149991</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.006227120826491905</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C496">
-        <v>288.2625414660239</v>
+        <v>0.001374384841260401</v>
       </c>
       <c r="D496">
-        <v>0.182840249318194</v>
+        <v>0.0009139013779126069</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.001374384841260401</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C497">
-        <v>288.7850133761363</v>
+        <v>0.006508248022482732</v>
       </c>
       <c r="D497">
-        <v>0.18210603200957</v>
+        <v>0.004327679305666204</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.006508248022482732</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C498">
-        <v>289.3074852862487</v>
+        <v>-0.0003803514941083108</v>
       </c>
       <c r="D498">
-        <v>0.1926667916586753</v>
+        <v>-0.0002529158821614538</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>-0.0003803514941083108</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C499">
-        <v>289.829957196361</v>
+        <v>-0.004081089169547525</v>
       </c>
       <c r="D499">
-        <v>0.197212802109902</v>
+        <v>-0.002713732648574113</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.004081089169547525</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C500">
-        <v>290.3524291064734</v>
+        <v>-0.001904219845499711</v>
       </c>
       <c r="D500">
-        <v>0.1971480349741266</v>
+        <v>-0.001266216774520575</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.001904219845499711</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C501">
-        <v>290.8749010165857</v>
+        <v>0.003595482558930385</v>
       </c>
       <c r="D501">
-        <v>0.1999643137971719</v>
+        <v>0.00239082705674622</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.003595482558930385</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C502">
-        <v>291.3973729266981</v>
+        <v>0.009006655796031104</v>
       </c>
       <c r="D502">
-        <v>0.2074454069221404</v>
+        <v>0.005989003149095306</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.009006655796031104</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C503">
-        <v>291.9198448368105</v>
+        <v>-0.0103684218126805</v>
       </c>
       <c r="D503">
-        <v>0.2046146784976687</v>
+        <v>-0.00689451360122539</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>-0.0103684218126805</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C504">
-        <v>292.4423167469228</v>
+        <v>-0.0005841821616110465</v>
+      </c>
+      <c r="D504">
+        <v>-0.000388453704101315</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>-0.0005841821616110465</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C505">
-        <v>292.9647886570352</v>
+        <v>0.003111702052274623</v>
+      </c>
+      <c r="D505">
+        <v>0.002069135738298251</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.003111702052274623</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C506">
-        <v>293.4872605671475</v>
+        <v>0.01958338295891249</v>
+      </c>
+      <c r="D506">
+        <v>0.01302203002612238</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.01958338295891249</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C507">
-        <v>294.0097324772599</v>
+        <v>0.003961530148760772</v>
+      </c>
+      <c r="D507">
+        <v>0.002634231514278502</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.003961530148760772</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C508">
-        <v>294.5322043873722</v>
+        <v>-0.009101230879061006</v>
+      </c>
+      <c r="D508">
+        <v>-0.006051891138035844</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.009101230879061006</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C509">
-        <v>295.0546762974846</v>
+        <v>0.001390324596197701</v>
+      </c>
+      <c r="D509">
+        <v>0.0009245005664102247</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.001390324596197701</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C510">
-        <v>295.577148207597</v>
+        <v>-0.002163563215646924</v>
+      </c>
+      <c r="D510">
+        <v>-0.001438667936825799</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>-0.002163563215646924</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C511">
-        <v>296.0996201177093</v>
+        <v>0.00657184558926982</v>
+      </c>
+      <c r="D511">
+        <v>0.004369968701018751</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.00657184558926982</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C512">
-        <v>296.6220920278217</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>-0.00358529753769421</v>
+      </c>
+      <c r="D512">
+        <v>-0.002384054495915824</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>-0.00358529753769421</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C513">
-        <v>297.144563937934</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.002419447943211139</v>
+      </c>
+      <c r="D513">
+        <v>-0.001608819264232226</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.002419447943211139</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C514">
-        <v>297.6670358480464</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.001140590802452657</v>
+      </c>
+      <c r="D514">
+        <v>0.0007584393211438446</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.001140590802452657</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C515">
-        <v>298.1895077581588</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.01158212473444298</v>
+      </c>
+      <c r="D515">
+        <v>0.007701569048343155</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.01158212473444298</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C516">
-        <v>298.7119796682711</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.0004942219738657272</v>
+      </c>
+      <c r="D516">
+        <v>0.0003286344038081542</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.0004942219738657272</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C517">
-        <v>299.2344515783835</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.004422572441301398</v>
+      </c>
+      <c r="D517">
+        <v>0.002940802988133279</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.004422572441301398</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C518">
-        <v>299.7569234884958</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.001201583918846616</v>
+      </c>
+      <c r="D518">
+        <v>-0.0007989968792907349</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.001201583918846616</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C519">
-        <v>300.2793953986082</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.01728321958106882</v>
+      </c>
+      <c r="D519">
+        <v>0.01149252939622046</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.01728321958106882</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C520">
-        <v>300.8018673087205</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.00743977701007914</v>
+      </c>
+      <c r="D520">
+        <v>0.004947102337536355</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.00743977701007914</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="C521">
-        <v>301.3243392188329</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.0001059947074297796</v>
+      </c>
+      <c r="D521">
+        <v>-7.048150289745937e-05</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.0001059947074297796</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C522">
-        <v>302.0348154093091</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>0.004259196487468309</v>
+      </c>
+      <c r="D522">
+        <v>0.00299615619458698</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.004259196487468309</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C523">
-        <v>302.7452915997853</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01131402377476043</v>
+      </c>
+      <c r="D523">
+        <v>0.007958914907586793</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.01131402377476043</v>
+        <v>0.7104761904761905</v>
       </c>
       <c r="C524">
-        <v>303.4557677902615</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.00428104932786777</v>
       </c>
-      <c r="C525">
-        <v>304.1662439807376</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>304.8767201712138</v>
+      <c r="D524">
+        <v>-0.003011528700486816</v>
       </c>
     </row>
   </sheetData>
